--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>期間</t>
   </si>
@@ -412,24 +412,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>15週目(2016/10/18)</t>
-    <rPh sb="2" eb="3">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>23~</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>休</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -442,6 +425,27 @@
   </si>
   <si>
     <t>fin</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>池沢
+大森</t>
+    <rPh sb="0" eb="2">
+      <t>イケザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オオモリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>16週目(2016/10/25)</t>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -886,7 +890,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,16 +1065,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,16 +1105,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1106,28 +1131,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1141,1250 +1148,7 @@
     <cellStyle name="見出し 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1464">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1376">
     <dxf>
       <fill>
         <patternFill>
@@ -22076,7 +20840,7 @@
   <dimension ref="B1:AY40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR33" sqref="AR33"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -22098,15 +20862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -22120,13 +20884,13 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="2:51" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="O2" s="38"/>
       <c r="P2" s="3" t="s">
         <v>21</v>
@@ -22140,21 +20904,21 @@
         <v>37</v>
       </c>
       <c r="W2" s="2"/>
-      <c r="X2" s="79"/>
-      <c r="AC2" s="65">
+      <c r="X2" s="58"/>
+      <c r="AC2" s="74">
         <v>42717</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
     </row>
     <row r="3" spans="2:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -22166,22 +20930,22 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
-      <c r="Z3" s="59">
+      <c r="Z3" s="71">
         <v>42689</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
       <c r="AD3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
       <c r="AH3" s="22"/>
-      <c r="AI3" s="65">
+      <c r="AI3" s="74">
         <v>42393</v>
       </c>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
@@ -22190,7 +20954,7 @@
     </row>
     <row r="4" spans="2:51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" s="14"/>
       <c r="I4" s="19" t="s">
@@ -22208,26 +20972,25 @@
       <c r="S4" s="16"/>
       <c r="T4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="39" t="s">
+      <c r="X4" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="23"/>
-      <c r="AA4" s="80" t="s">
-        <v>69</v>
+      <c r="AA4" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="AC4" s="17"/>
-      <c r="AD4" s="80" t="s">
-        <v>70</v>
+      <c r="AD4" s="59" t="s">
+        <v>68</v>
       </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
-      <c r="AJ4" s="80" t="s">
-        <v>71</v>
+      <c r="AJ4" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="7"/>
@@ -22266,12 +21029,12 @@
         <v>11</v>
       </c>
       <c r="Z5" s="18"/>
-      <c r="AA5" s="79"/>
+      <c r="AA5" s="58"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="17">
         <v>12</v>
       </c>
-      <c r="AD5" s="79"/>
+      <c r="AD5" s="58"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17">
@@ -22279,7 +21042,7 @@
       </c>
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
-      <c r="AJ5" s="79"/>
+      <c r="AJ5" s="58"/>
       <c r="AK5" s="17" t="s">
         <v>24</v>
       </c>
@@ -22393,10 +21156,10 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -22432,22 +21195,22 @@
       <c r="X7" s="44"/>
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
-      <c r="AA7" s="79"/>
+      <c r="AA7" s="58"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="49"/>
-      <c r="AD7" s="79"/>
+      <c r="AD7" s="58"/>
       <c r="AE7" s="49"/>
       <c r="AF7" s="49"/>
       <c r="AG7" s="49"/>
       <c r="AH7" s="49"/>
       <c r="AI7" s="49"/>
-      <c r="AJ7" s="79"/>
+      <c r="AJ7" s="58"/>
       <c r="AK7" s="49"/>
       <c r="AL7" s="47"/>
     </row>
     <row r="8" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="33" t="s">
         <v>44</v>
       </c>
@@ -22481,22 +21244,22 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
-      <c r="AA8" s="79"/>
+      <c r="AA8" s="58"/>
       <c r="AB8" s="44"/>
       <c r="AC8" s="49"/>
-      <c r="AD8" s="79"/>
+      <c r="AD8" s="58"/>
       <c r="AE8" s="49"/>
       <c r="AF8" s="49"/>
       <c r="AG8" s="49"/>
       <c r="AH8" s="49"/>
       <c r="AI8" s="49"/>
-      <c r="AJ8" s="79"/>
+      <c r="AJ8" s="58"/>
       <c r="AK8" s="49"/>
       <c r="AL8" s="47"/>
     </row>
     <row r="9" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -22532,22 +21295,22 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
-      <c r="AA9" s="79"/>
+      <c r="AA9" s="58"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="49"/>
-      <c r="AD9" s="79"/>
+      <c r="AD9" s="58"/>
       <c r="AE9" s="49"/>
       <c r="AF9" s="49"/>
       <c r="AG9" s="49"/>
       <c r="AH9" s="49"/>
       <c r="AI9" s="49"/>
-      <c r="AJ9" s="79"/>
+      <c r="AJ9" s="58"/>
       <c r="AK9" s="49"/>
       <c r="AL9" s="47"/>
     </row>
     <row r="10" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="33" t="s">
         <v>44</v>
       </c>
@@ -22581,28 +21344,28 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
       <c r="Z10" s="44"/>
-      <c r="AA10" s="79"/>
+      <c r="AA10" s="58"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="49"/>
-      <c r="AD10" s="79"/>
+      <c r="AD10" s="58"/>
       <c r="AE10" s="49"/>
       <c r="AF10" s="49"/>
       <c r="AG10" s="49"/>
       <c r="AH10" s="49"/>
       <c r="AI10" s="49"/>
-      <c r="AJ10" s="79"/>
+      <c r="AJ10" s="58"/>
       <c r="AK10" s="49"/>
       <c r="AL10" s="47"/>
     </row>
     <row r="11" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="65" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="27">
@@ -22614,7 +21377,9 @@
       <c r="H11" s="43">
         <v>1</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="81">
+        <v>0.65</v>
+      </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -22632,28 +21397,28 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="79"/>
+      <c r="AA11" s="58"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="49"/>
-      <c r="AD11" s="79"/>
+      <c r="AD11" s="58"/>
       <c r="AE11" s="49"/>
       <c r="AF11" s="49"/>
       <c r="AG11" s="49"/>
       <c r="AH11" s="49"/>
       <c r="AI11" s="49"/>
-      <c r="AJ11" s="79"/>
+      <c r="AJ11" s="58"/>
       <c r="AK11" s="49"/>
       <c r="AL11" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="27">
         <v>42640</v>
       </c>
@@ -22681,26 +21446,26 @@
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
-      <c r="AA12" s="79"/>
+      <c r="AA12" s="58"/>
       <c r="AB12" s="38"/>
       <c r="AC12" s="49"/>
-      <c r="AD12" s="79"/>
+      <c r="AD12" s="58"/>
       <c r="AE12" s="49"/>
       <c r="AF12" s="49"/>
       <c r="AG12" s="49"/>
       <c r="AH12" s="49"/>
       <c r="AI12" s="49"/>
-      <c r="AJ12" s="79"/>
+      <c r="AJ12" s="58"/>
       <c r="AK12" s="49"/>
       <c r="AL12" s="47"/>
     </row>
     <row r="13" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="27">
         <v>42658</v>
       </c>
@@ -22728,26 +21493,26 @@
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
-      <c r="AA13" s="79"/>
+      <c r="AA13" s="58"/>
       <c r="AB13" s="38"/>
       <c r="AC13" s="38"/>
-      <c r="AD13" s="79"/>
+      <c r="AD13" s="58"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="49"/>
-      <c r="AJ13" s="79"/>
+      <c r="AJ13" s="58"/>
       <c r="AK13" s="49"/>
       <c r="AL13" s="47"/>
     </row>
     <row r="14" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="60" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="27">
@@ -22757,7 +21522,7 @@
         <v>42682</v>
       </c>
       <c r="H14" s="43">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
@@ -22777,28 +21542,28 @@
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
-      <c r="AA14" s="79"/>
+      <c r="AA14" s="58"/>
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
-      <c r="AD14" s="79"/>
+      <c r="AD14" s="58"/>
       <c r="AE14" s="44"/>
       <c r="AF14" s="44"/>
       <c r="AG14" s="44"/>
       <c r="AH14" s="49"/>
       <c r="AI14" s="49"/>
-      <c r="AJ14" s="79"/>
+      <c r="AJ14" s="58"/>
       <c r="AK14" s="49"/>
       <c r="AL14" s="47"/>
     </row>
     <row r="15" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="65" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="27">
         <v>42640</v>
       </c>
@@ -22826,28 +21591,28 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="44"/>
-      <c r="AA15" s="79"/>
+      <c r="AA15" s="58"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="49"/>
-      <c r="AD15" s="79"/>
+      <c r="AD15" s="58"/>
       <c r="AE15" s="49"/>
       <c r="AF15" s="49"/>
       <c r="AG15" s="49"/>
       <c r="AH15" s="49"/>
       <c r="AI15" s="49"/>
-      <c r="AJ15" s="79"/>
+      <c r="AJ15" s="58"/>
       <c r="AK15" s="49"/>
       <c r="AL15" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:51" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="27">
         <v>42654</v>
       </c>
@@ -22875,23 +21640,23 @@
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="79"/>
+      <c r="AA16" s="58"/>
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
-      <c r="AD16" s="79"/>
+      <c r="AD16" s="58"/>
       <c r="AE16" s="38"/>
       <c r="AF16" s="49"/>
       <c r="AG16" s="49"/>
       <c r="AH16" s="49"/>
       <c r="AI16" s="49"/>
-      <c r="AJ16" s="79"/>
+      <c r="AJ16" s="58"/>
       <c r="AK16" s="49"/>
       <c r="AL16" s="47"/>
     </row>
     <row r="17" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="37"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -22914,28 +21679,28 @@
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="79"/>
+      <c r="AA17" s="58"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="49"/>
-      <c r="AD17" s="79"/>
+      <c r="AD17" s="58"/>
       <c r="AE17" s="49"/>
       <c r="AF17" s="49"/>
       <c r="AG17" s="49"/>
       <c r="AH17" s="49"/>
       <c r="AI17" s="49"/>
-      <c r="AJ17" s="79"/>
+      <c r="AJ17" s="58"/>
       <c r="AK17" s="49"/>
       <c r="AL17" s="47"/>
     </row>
     <row r="18" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="73" t="s">
+      <c r="D18" s="70"/>
+      <c r="E18" s="60" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="27">
@@ -22945,7 +21710,7 @@
         <v>42668</v>
       </c>
       <c r="H18" s="43">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -22965,26 +21730,26 @@
       <c r="X18" s="38"/>
       <c r="Y18" s="49"/>
       <c r="Z18" s="49"/>
-      <c r="AA18" s="79"/>
+      <c r="AA18" s="58"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="49"/>
-      <c r="AD18" s="79"/>
+      <c r="AD18" s="58"/>
       <c r="AE18" s="49"/>
       <c r="AF18" s="49"/>
       <c r="AG18" s="49"/>
       <c r="AH18" s="49"/>
       <c r="AI18" s="49"/>
-      <c r="AJ18" s="79"/>
+      <c r="AJ18" s="58"/>
       <c r="AK18" s="49"/>
       <c r="AL18" s="47"/>
     </row>
     <row r="19" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="27">
         <v>42668</v>
       </c>
@@ -23012,26 +21777,26 @@
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
       <c r="Z19" s="44"/>
-      <c r="AA19" s="79"/>
+      <c r="AA19" s="58"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="49"/>
-      <c r="AD19" s="79"/>
+      <c r="AD19" s="58"/>
       <c r="AE19" s="49"/>
       <c r="AF19" s="49"/>
       <c r="AG19" s="49"/>
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
-      <c r="AJ19" s="79"/>
+      <c r="AJ19" s="58"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="47"/>
     </row>
     <row r="20" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="75"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="29">
         <v>42675</v>
       </c>
@@ -23057,28 +21822,28 @@
       <c r="X20" s="44"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
-      <c r="AA20" s="79"/>
+      <c r="AA20" s="58"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="49"/>
-      <c r="AD20" s="79"/>
+      <c r="AD20" s="58"/>
       <c r="AE20" s="49"/>
       <c r="AF20" s="49"/>
       <c r="AG20" s="49"/>
       <c r="AH20" s="49"/>
       <c r="AI20" s="49"/>
-      <c r="AJ20" s="79"/>
+      <c r="AJ20" s="58"/>
       <c r="AK20" s="49"/>
       <c r="AL20" s="47"/>
     </row>
     <row r="21" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="71"/>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="29">
@@ -23108,26 +21873,26 @@
       <c r="X21" s="55"/>
       <c r="Y21" s="49"/>
       <c r="Z21" s="44"/>
-      <c r="AA21" s="79"/>
+      <c r="AA21" s="58"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="49"/>
-      <c r="AD21" s="79"/>
+      <c r="AD21" s="58"/>
       <c r="AE21" s="49"/>
       <c r="AF21" s="49"/>
       <c r="AG21" s="49"/>
       <c r="AH21" s="49"/>
       <c r="AI21" s="49"/>
-      <c r="AJ21" s="79"/>
+      <c r="AJ21" s="58"/>
       <c r="AK21" s="49"/>
       <c r="AL21" s="47"/>
     </row>
     <row r="22" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="71"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="27">
         <v>42679</v>
       </c>
@@ -23155,26 +21920,26 @@
       <c r="X22" s="44"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
-      <c r="AA22" s="79"/>
+      <c r="AA22" s="58"/>
       <c r="AB22" s="38"/>
       <c r="AC22" s="38"/>
-      <c r="AD22" s="79"/>
+      <c r="AD22" s="58"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="49"/>
       <c r="AG22" s="49"/>
       <c r="AH22" s="49"/>
       <c r="AI22" s="49"/>
-      <c r="AJ22" s="79"/>
+      <c r="AJ22" s="58"/>
       <c r="AK22" s="49"/>
       <c r="AL22" s="47"/>
     </row>
     <row r="23" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="71"/>
-      <c r="C23" s="63" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="74"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="27">
         <v>42611</v>
       </c>
@@ -23202,28 +21967,28 @@
       <c r="X23" s="44"/>
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
-      <c r="AA23" s="79"/>
+      <c r="AA23" s="58"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="49"/>
-      <c r="AD23" s="79"/>
+      <c r="AD23" s="58"/>
       <c r="AE23" s="49"/>
       <c r="AF23" s="49"/>
       <c r="AG23" s="49"/>
       <c r="AH23" s="49"/>
       <c r="AI23" s="49"/>
-      <c r="AJ23" s="79"/>
+      <c r="AJ23" s="58"/>
       <c r="AK23" s="49"/>
       <c r="AL23" s="47"/>
     </row>
     <row r="24" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71"/>
-      <c r="C24" s="67" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="65" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="74"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="30">
         <v>42640</v>
       </c>
@@ -23251,26 +22016,26 @@
       <c r="X24" s="44"/>
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
-      <c r="AA24" s="79"/>
+      <c r="AA24" s="58"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="49"/>
-      <c r="AD24" s="79"/>
+      <c r="AD24" s="58"/>
       <c r="AE24" s="49"/>
       <c r="AF24" s="49"/>
       <c r="AG24" s="49"/>
       <c r="AH24" s="49"/>
       <c r="AI24" s="49"/>
-      <c r="AJ24" s="79"/>
+      <c r="AJ24" s="58"/>
       <c r="AK24" s="49"/>
       <c r="AL24" s="47"/>
     </row>
     <row r="25" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="74"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30">
         <v>42658</v>
       </c>
@@ -23298,26 +22063,26 @@
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="44"/>
-      <c r="AA25" s="79"/>
+      <c r="AA25" s="58"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="49"/>
-      <c r="AD25" s="79"/>
+      <c r="AD25" s="58"/>
       <c r="AE25" s="49"/>
       <c r="AF25" s="49"/>
       <c r="AG25" s="49"/>
       <c r="AH25" s="49"/>
       <c r="AI25" s="49"/>
-      <c r="AJ25" s="79"/>
+      <c r="AJ25" s="58"/>
       <c r="AK25" s="49"/>
       <c r="AL25" s="47"/>
     </row>
     <row r="26" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="71"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="74"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="30">
         <v>42675</v>
       </c>
@@ -23345,26 +22110,26 @@
       <c r="X26" s="44"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
-      <c r="AA26" s="79"/>
+      <c r="AA26" s="58"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="49"/>
-      <c r="AD26" s="79"/>
+      <c r="AD26" s="58"/>
       <c r="AE26" s="49"/>
       <c r="AF26" s="49"/>
       <c r="AG26" s="49"/>
       <c r="AH26" s="49"/>
       <c r="AI26" s="49"/>
-      <c r="AJ26" s="79"/>
+      <c r="AJ26" s="58"/>
       <c r="AK26" s="49"/>
       <c r="AL26" s="47"/>
     </row>
     <row r="27" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="30">
         <v>42689</v>
       </c>
@@ -23392,23 +22157,23 @@
       <c r="X27" s="44"/>
       <c r="Y27" s="44"/>
       <c r="Z27" s="44"/>
-      <c r="AA27" s="79"/>
+      <c r="AA27" s="58"/>
       <c r="AB27" s="38"/>
       <c r="AC27" s="38"/>
-      <c r="AD27" s="79"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="49"/>
       <c r="AF27" s="49"/>
       <c r="AG27" s="49"/>
       <c r="AH27" s="49"/>
       <c r="AI27" s="49"/>
-      <c r="AJ27" s="79"/>
+      <c r="AJ27" s="58"/>
       <c r="AK27" s="49"/>
       <c r="AL27" s="47"/>
     </row>
     <row r="28" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="71"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="32"/>
       <c r="F28" s="28"/>
       <c r="G28" s="31"/>
@@ -23431,24 +22196,24 @@
       <c r="X28" s="44"/>
       <c r="Y28" s="44"/>
       <c r="Z28" s="44"/>
-      <c r="AA28" s="79"/>
+      <c r="AA28" s="58"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
-      <c r="AD28" s="79"/>
+      <c r="AD28" s="58"/>
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="44"/>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
-      <c r="AJ28" s="79"/>
+      <c r="AJ28" s="58"/>
       <c r="AK28" s="44"/>
       <c r="AL28" s="47"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="53" t="s">
@@ -23464,7 +22229,7 @@
         <v>42661</v>
       </c>
       <c r="H29" s="43">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -23480,26 +22245,26 @@
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="79"/>
+      <c r="AA29" s="58"/>
       <c r="AB29" s="38"/>
       <c r="AC29" s="38"/>
-      <c r="AD29" s="79"/>
+      <c r="AD29" s="58"/>
       <c r="AE29" s="49"/>
       <c r="AF29" s="49"/>
       <c r="AG29" s="49"/>
       <c r="AH29" s="49"/>
       <c r="AI29" s="49"/>
-      <c r="AJ29" s="79"/>
+      <c r="AJ29" s="58"/>
       <c r="AK29" s="49"/>
       <c r="AL29" s="47"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="53" t="s">
         <v>58</v>
       </c>
@@ -23533,29 +22298,29 @@
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
-      <c r="AA30" s="79"/>
+      <c r="AA30" s="58"/>
       <c r="AB30" s="38"/>
       <c r="AC30" s="38"/>
-      <c r="AD30" s="79"/>
+      <c r="AD30" s="58"/>
       <c r="AE30" s="49"/>
       <c r="AF30" s="49"/>
       <c r="AG30" s="49"/>
       <c r="AH30" s="49"/>
       <c r="AI30" s="49"/>
-      <c r="AJ30" s="79"/>
+      <c r="AJ30" s="58"/>
       <c r="AK30" s="49"/>
       <c r="AL30" s="47"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="71"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="78"/>
+      <c r="C31" s="68" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>14</v>
+      <c r="E31" s="80" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="27">
         <v>42640</v>
@@ -23564,7 +22329,7 @@
         <v>42658</v>
       </c>
       <c r="H31" s="43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -23579,33 +22344,31 @@
       <c r="S31" s="44"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="58" t="s">
-        <v>68</v>
-      </c>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
       <c r="X31" s="44"/>
       <c r="Y31" s="44"/>
       <c r="Z31" s="44"/>
-      <c r="AA31" s="79"/>
+      <c r="AA31" s="58"/>
       <c r="AB31" s="44"/>
       <c r="AC31" s="49"/>
-      <c r="AD31" s="79"/>
+      <c r="AD31" s="58"/>
       <c r="AE31" s="49"/>
       <c r="AF31" s="49"/>
       <c r="AG31" s="49"/>
       <c r="AH31" s="49"/>
       <c r="AI31" s="49"/>
-      <c r="AJ31" s="79"/>
+      <c r="AJ31" s="58"/>
       <c r="AK31" s="49"/>
       <c r="AL31" s="47"/>
     </row>
     <row r="32" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="71"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="74"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="27">
         <v>42640</v>
       </c>
@@ -23628,33 +22391,31 @@
       <c r="S32" s="44"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="58" t="s">
-        <v>68</v>
-      </c>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
       <c r="X32" s="44"/>
       <c r="Y32" s="44"/>
       <c r="Z32" s="44"/>
-      <c r="AA32" s="79"/>
+      <c r="AA32" s="58"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="49"/>
-      <c r="AD32" s="79"/>
+      <c r="AD32" s="58"/>
       <c r="AE32" s="49"/>
       <c r="AF32" s="49"/>
       <c r="AG32" s="49"/>
       <c r="AH32" s="49"/>
       <c r="AI32" s="49"/>
-      <c r="AJ32" s="79"/>
+      <c r="AJ32" s="58"/>
       <c r="AK32" s="49"/>
       <c r="AL32" s="47"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="71"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="75"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="27">
         <v>42640</v>
       </c>
@@ -23676,36 +22437,34 @@
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="55"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="58" t="s">
-        <v>68</v>
-      </c>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
       <c r="X33" s="44"/>
       <c r="Y33" s="44"/>
       <c r="Z33" s="44"/>
-      <c r="AA33" s="79"/>
+      <c r="AA33" s="58"/>
       <c r="AB33" s="44"/>
       <c r="AC33" s="49"/>
-      <c r="AD33" s="79"/>
+      <c r="AD33" s="58"/>
       <c r="AE33" s="49"/>
       <c r="AF33" s="49"/>
       <c r="AG33" s="49"/>
       <c r="AH33" s="49"/>
       <c r="AI33" s="49"/>
-      <c r="AJ33" s="79"/>
+      <c r="AJ33" s="58"/>
       <c r="AK33" s="49"/>
       <c r="AL33" s="47"/>
     </row>
     <row r="34" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="65" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="60" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="27">
@@ -23715,7 +22474,7 @@
         <v>42665</v>
       </c>
       <c r="H34" s="43">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
@@ -23731,30 +22490,30 @@
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
       <c r="V34" s="55"/>
-      <c r="W34" s="38"/>
+      <c r="W34" s="55"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="44"/>
       <c r="Z34" s="44"/>
-      <c r="AA34" s="79"/>
+      <c r="AA34" s="58"/>
       <c r="AB34" s="44"/>
       <c r="AC34" s="49"/>
-      <c r="AD34" s="79"/>
+      <c r="AD34" s="58"/>
       <c r="AE34" s="49"/>
       <c r="AF34" s="49"/>
       <c r="AG34" s="49"/>
       <c r="AH34" s="49"/>
       <c r="AI34" s="49"/>
-      <c r="AJ34" s="79"/>
+      <c r="AJ34" s="58"/>
       <c r="AK34" s="49"/>
       <c r="AL34" s="47"/>
     </row>
     <row r="35" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="27">
         <v>42665</v>
       </c>
@@ -23782,26 +22541,26 @@
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
-      <c r="AA35" s="79"/>
+      <c r="AA35" s="58"/>
       <c r="AB35" s="44"/>
       <c r="AC35" s="49"/>
-      <c r="AD35" s="79"/>
+      <c r="AD35" s="58"/>
       <c r="AE35" s="49"/>
       <c r="AF35" s="49"/>
       <c r="AG35" s="49"/>
       <c r="AH35" s="49"/>
       <c r="AI35" s="49"/>
-      <c r="AJ35" s="79"/>
+      <c r="AJ35" s="58"/>
       <c r="AK35" s="49"/>
       <c r="AL35" s="47"/>
     </row>
     <row r="36" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="30">
         <v>42675</v>
       </c>
@@ -23829,23 +22588,23 @@
       <c r="X36" s="44"/>
       <c r="Y36" s="44"/>
       <c r="Z36" s="38"/>
-      <c r="AA36" s="79"/>
+      <c r="AA36" s="58"/>
       <c r="AB36" s="38"/>
       <c r="AC36" s="49"/>
-      <c r="AD36" s="79"/>
+      <c r="AD36" s="58"/>
       <c r="AE36" s="49"/>
       <c r="AF36" s="49"/>
       <c r="AG36" s="49"/>
       <c r="AH36" s="49"/>
       <c r="AI36" s="49"/>
-      <c r="AJ36" s="79"/>
+      <c r="AJ36" s="58"/>
       <c r="AK36" s="49"/>
       <c r="AL36" s="47"/>
     </row>
     <row r="37" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13"/>
       <c r="G37" s="11"/>
@@ -23868,16 +22627,16 @@
       <c r="X37" s="49"/>
       <c r="Y37" s="49"/>
       <c r="Z37" s="49"/>
-      <c r="AA37" s="79"/>
+      <c r="AA37" s="58"/>
       <c r="AB37" s="49"/>
       <c r="AC37" s="49"/>
-      <c r="AD37" s="79"/>
+      <c r="AD37" s="58"/>
       <c r="AE37" s="49"/>
       <c r="AF37" s="49"/>
       <c r="AG37" s="49"/>
       <c r="AH37" s="49"/>
       <c r="AI37" s="49"/>
-      <c r="AJ37" s="79"/>
+      <c r="AJ37" s="58"/>
       <c r="AK37" s="49"/>
       <c r="AL37" s="48"/>
     </row>
@@ -23916,7 +22675,7 @@
         <v>35</v>
       </c>
       <c r="T38" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U38" s="26" t="s">
         <v>33</v>
@@ -24000,12 +22759,12 @@
         <v>11</v>
       </c>
       <c r="Z39" s="23"/>
-      <c r="AA39" s="79"/>
+      <c r="AA39" s="58"/>
       <c r="AB39" s="23"/>
       <c r="AC39" s="17">
         <v>12</v>
       </c>
-      <c r="AD39" s="79"/>
+      <c r="AD39" s="58"/>
       <c r="AE39" s="17"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="17">
@@ -24013,36 +22772,21 @@
       </c>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="79"/>
+      <c r="AJ39" s="58"/>
       <c r="AK39" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="W40" s="39" t="s">
+      <c r="X40" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AA40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AJ40" s="79"/>
+      <c r="AA40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AJ40" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C31:C33"/>
@@ -24059,4477 +22803,4492 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="I8:L10 I13:N13 AI13 I14:P14 AH14:AI14 AM8:BQ10 I22:L22 I19:L19 I20:N21 R30 I30:N30 W20:X20 W28:Z28 M11:Z11 P9:R10 M12:R12 I17:Z17 P7:Z8 AC18 I23:N27 X23:Z24 O24:R27 I36:S36 I15:R16 AB15:AC15 I35:N35 V9:Z10 AF16:AI16 AC11:AC12 X22 I31:S34 Z21 Z19 W37:Z37 X31:Z33 AC36 X27:Z27 Z25 X26 Y34:Z34 AB31:AC35 AB37:AC37 AB19:AC21 AB23:AC26 AB17:AC17 AB7:AC10 AB28:AC28 AE7:AI12 AE15:AI15 AE17:AI37 AK7:BQ7 AK8:AK10 AK11:BQ37">
-    <cfRule type="expression" dxfId="1463" priority="2433">
+    <cfRule type="expression" dxfId="1375" priority="2433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1462" priority="2435">
+    <cfRule type="expression" dxfId="1374" priority="2435">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1461" priority="2436">
+    <cfRule type="expression" dxfId="1373" priority="2436">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1460" priority="2437">
+    <cfRule type="expression" dxfId="1372" priority="2437">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1459" priority="2438">
+    <cfRule type="expression" dxfId="1371" priority="2438">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1458" priority="2439">
+    <cfRule type="expression" dxfId="1370" priority="2439">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1457" priority="2443">
+    <cfRule type="expression" dxfId="1369" priority="2443">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1456" priority="2444">
+    <cfRule type="expression" dxfId="1368" priority="2444">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1455" priority="2425">
+    <cfRule type="expression" dxfId="1367" priority="2425">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1454" priority="2426">
+    <cfRule type="expression" dxfId="1366" priority="2426">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1453" priority="2427">
+    <cfRule type="expression" dxfId="1365" priority="2427">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1452" priority="2428">
+    <cfRule type="expression" dxfId="1364" priority="2428">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1451" priority="2429">
+    <cfRule type="expression" dxfId="1363" priority="2429">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1450" priority="2430">
+    <cfRule type="expression" dxfId="1362" priority="2430">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1449" priority="2431">
+    <cfRule type="expression" dxfId="1361" priority="2431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1448" priority="2432">
+    <cfRule type="expression" dxfId="1360" priority="2432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="1447" priority="2417">
+    <cfRule type="expression" dxfId="1359" priority="2417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1446" priority="2418">
+    <cfRule type="expression" dxfId="1358" priority="2418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1445" priority="2419">
+    <cfRule type="expression" dxfId="1357" priority="2419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1444" priority="2420">
+    <cfRule type="expression" dxfId="1356" priority="2420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1443" priority="2421">
+    <cfRule type="expression" dxfId="1355" priority="2421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1442" priority="2422">
+    <cfRule type="expression" dxfId="1354" priority="2422">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1441" priority="2423">
+    <cfRule type="expression" dxfId="1353" priority="2423">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1440" priority="2424">
+    <cfRule type="expression" dxfId="1352" priority="2424">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="1439" priority="2409">
+    <cfRule type="expression" dxfId="1351" priority="2409">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1438" priority="2410">
+    <cfRule type="expression" dxfId="1350" priority="2410">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1437" priority="2411">
+    <cfRule type="expression" dxfId="1349" priority="2411">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1436" priority="2412">
+    <cfRule type="expression" dxfId="1348" priority="2412">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1435" priority="2413">
+    <cfRule type="expression" dxfId="1347" priority="2413">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1434" priority="2414">
+    <cfRule type="expression" dxfId="1346" priority="2414">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1433" priority="2415">
+    <cfRule type="expression" dxfId="1345" priority="2415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1432" priority="2416">
+    <cfRule type="expression" dxfId="1344" priority="2416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="1431" priority="2401">
+    <cfRule type="expression" dxfId="1343" priority="2401">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1430" priority="2402">
+    <cfRule type="expression" dxfId="1342" priority="2402">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1429" priority="2403">
+    <cfRule type="expression" dxfId="1341" priority="2403">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1428" priority="2404">
+    <cfRule type="expression" dxfId="1340" priority="2404">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1427" priority="2405">
+    <cfRule type="expression" dxfId="1339" priority="2405">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1426" priority="2406">
+    <cfRule type="expression" dxfId="1338" priority="2406">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1425" priority="2407">
+    <cfRule type="expression" dxfId="1337" priority="2407">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1424" priority="2408">
+    <cfRule type="expression" dxfId="1336" priority="2408">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="expression" dxfId="1423" priority="2369">
+    <cfRule type="expression" dxfId="1335" priority="2369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1422" priority="2370">
+    <cfRule type="expression" dxfId="1334" priority="2370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1421" priority="2371">
+    <cfRule type="expression" dxfId="1333" priority="2371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1420" priority="2372">
+    <cfRule type="expression" dxfId="1332" priority="2372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1419" priority="2373">
+    <cfRule type="expression" dxfId="1331" priority="2373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1418" priority="2374">
+    <cfRule type="expression" dxfId="1330" priority="2374">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1417" priority="2375">
+    <cfRule type="expression" dxfId="1329" priority="2375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1416" priority="2376">
+    <cfRule type="expression" dxfId="1328" priority="2376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19">
-    <cfRule type="expression" dxfId="1415" priority="2185">
+    <cfRule type="expression" dxfId="1327" priority="2185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1414" priority="2186">
+    <cfRule type="expression" dxfId="1326" priority="2186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1413" priority="2187">
+    <cfRule type="expression" dxfId="1325" priority="2187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1412" priority="2188">
+    <cfRule type="expression" dxfId="1324" priority="2188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1411" priority="2189">
+    <cfRule type="expression" dxfId="1323" priority="2189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="2190">
+    <cfRule type="expression" dxfId="1322" priority="2190">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1409" priority="2191">
+    <cfRule type="expression" dxfId="1321" priority="2191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1408" priority="2192">
+    <cfRule type="expression" dxfId="1320" priority="2192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S21">
-    <cfRule type="expression" dxfId="1407" priority="2353">
+    <cfRule type="expression" dxfId="1319" priority="2353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1406" priority="2354">
+    <cfRule type="expression" dxfId="1318" priority="2354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1405" priority="2355">
+    <cfRule type="expression" dxfId="1317" priority="2355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1404" priority="2356">
+    <cfRule type="expression" dxfId="1316" priority="2356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1403" priority="2357">
+    <cfRule type="expression" dxfId="1315" priority="2357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="2358">
+    <cfRule type="expression" dxfId="1314" priority="2358">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1401" priority="2359">
+    <cfRule type="expression" dxfId="1313" priority="2359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="2360">
+    <cfRule type="expression" dxfId="1312" priority="2360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="expression" dxfId="1399" priority="2345">
+    <cfRule type="expression" dxfId="1311" priority="2345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1398" priority="2346">
+    <cfRule type="expression" dxfId="1310" priority="2346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1397" priority="2347">
+    <cfRule type="expression" dxfId="1309" priority="2347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1396" priority="2348">
+    <cfRule type="expression" dxfId="1308" priority="2348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1395" priority="2349">
+    <cfRule type="expression" dxfId="1307" priority="2349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="2350">
+    <cfRule type="expression" dxfId="1306" priority="2350">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1393" priority="2351">
+    <cfRule type="expression" dxfId="1305" priority="2351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="2352">
+    <cfRule type="expression" dxfId="1304" priority="2352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R21">
-    <cfRule type="expression" dxfId="1391" priority="2337">
+    <cfRule type="expression" dxfId="1303" priority="2337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1390" priority="2338">
+    <cfRule type="expression" dxfId="1302" priority="2338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1389" priority="2339">
+    <cfRule type="expression" dxfId="1301" priority="2339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1388" priority="2340">
+    <cfRule type="expression" dxfId="1300" priority="2340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1387" priority="2341">
+    <cfRule type="expression" dxfId="1299" priority="2341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="2342">
+    <cfRule type="expression" dxfId="1298" priority="2342">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1385" priority="2343">
+    <cfRule type="expression" dxfId="1297" priority="2343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="2344">
+    <cfRule type="expression" dxfId="1296" priority="2344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="expression" dxfId="1383" priority="2321">
+    <cfRule type="expression" dxfId="1295" priority="2321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1382" priority="2322">
+    <cfRule type="expression" dxfId="1294" priority="2322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1381" priority="2323">
+    <cfRule type="expression" dxfId="1293" priority="2323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1380" priority="2324">
+    <cfRule type="expression" dxfId="1292" priority="2324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1379" priority="2325">
+    <cfRule type="expression" dxfId="1291" priority="2325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="2326">
+    <cfRule type="expression" dxfId="1290" priority="2326">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1377" priority="2327">
+    <cfRule type="expression" dxfId="1289" priority="2327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="2328">
+    <cfRule type="expression" dxfId="1288" priority="2328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O21">
-    <cfRule type="expression" dxfId="1375" priority="2313">
+    <cfRule type="expression" dxfId="1287" priority="2313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1374" priority="2314">
+    <cfRule type="expression" dxfId="1286" priority="2314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1373" priority="2315">
+    <cfRule type="expression" dxfId="1285" priority="2315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1372" priority="2316">
+    <cfRule type="expression" dxfId="1284" priority="2316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1371" priority="2317">
+    <cfRule type="expression" dxfId="1283" priority="2317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="2318">
+    <cfRule type="expression" dxfId="1282" priority="2318">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1369" priority="2319">
+    <cfRule type="expression" dxfId="1281" priority="2319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="2320">
+    <cfRule type="expression" dxfId="1280" priority="2320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="expression" dxfId="1367" priority="2273">
+    <cfRule type="expression" dxfId="1279" priority="2273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1366" priority="2274">
+    <cfRule type="expression" dxfId="1278" priority="2274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1365" priority="2275">
+    <cfRule type="expression" dxfId="1277" priority="2275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1364" priority="2276">
+    <cfRule type="expression" dxfId="1276" priority="2276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1363" priority="2277">
+    <cfRule type="expression" dxfId="1275" priority="2277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="2278">
+    <cfRule type="expression" dxfId="1274" priority="2278">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1361" priority="2279">
+    <cfRule type="expression" dxfId="1273" priority="2279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="2280">
+    <cfRule type="expression" dxfId="1272" priority="2280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="expression" dxfId="1359" priority="2265">
+    <cfRule type="expression" dxfId="1271" priority="2265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1358" priority="2266">
+    <cfRule type="expression" dxfId="1270" priority="2266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1357" priority="2267">
+    <cfRule type="expression" dxfId="1269" priority="2267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1356" priority="2268">
+    <cfRule type="expression" dxfId="1268" priority="2268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1355" priority="2269">
+    <cfRule type="expression" dxfId="1267" priority="2269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="2270">
+    <cfRule type="expression" dxfId="1266" priority="2270">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1353" priority="2271">
+    <cfRule type="expression" dxfId="1265" priority="2271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="2272">
+    <cfRule type="expression" dxfId="1264" priority="2272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="1351" priority="2289">
+    <cfRule type="expression" dxfId="1263" priority="2289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1350" priority="2290">
+    <cfRule type="expression" dxfId="1262" priority="2290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1349" priority="2291">
+    <cfRule type="expression" dxfId="1261" priority="2291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1348" priority="2292">
+    <cfRule type="expression" dxfId="1260" priority="2292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1347" priority="2293">
+    <cfRule type="expression" dxfId="1259" priority="2293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="2294">
+    <cfRule type="expression" dxfId="1258" priority="2294">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1345" priority="2295">
+    <cfRule type="expression" dxfId="1257" priority="2295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="2296">
+    <cfRule type="expression" dxfId="1256" priority="2296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="expression" dxfId="1343" priority="2281">
+    <cfRule type="expression" dxfId="1255" priority="2281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1342" priority="2282">
+    <cfRule type="expression" dxfId="1254" priority="2282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1341" priority="2283">
+    <cfRule type="expression" dxfId="1253" priority="2283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1340" priority="2284">
+    <cfRule type="expression" dxfId="1252" priority="2284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1339" priority="2285">
+    <cfRule type="expression" dxfId="1251" priority="2285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="2286">
+    <cfRule type="expression" dxfId="1250" priority="2286">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1337" priority="2287">
+    <cfRule type="expression" dxfId="1249" priority="2287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="2288">
+    <cfRule type="expression" dxfId="1248" priority="2288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="expression" dxfId="1335" priority="2249">
+    <cfRule type="expression" dxfId="1247" priority="2249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1334" priority="2250">
+    <cfRule type="expression" dxfId="1246" priority="2250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1333" priority="2251">
+    <cfRule type="expression" dxfId="1245" priority="2251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1332" priority="2252">
+    <cfRule type="expression" dxfId="1244" priority="2252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1331" priority="2253">
+    <cfRule type="expression" dxfId="1243" priority="2253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="2254">
+    <cfRule type="expression" dxfId="1242" priority="2254">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1329" priority="2255">
+    <cfRule type="expression" dxfId="1241" priority="2255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="2256">
+    <cfRule type="expression" dxfId="1240" priority="2256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="1327" priority="2209">
+    <cfRule type="expression" dxfId="1239" priority="2209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1326" priority="2210">
+    <cfRule type="expression" dxfId="1238" priority="2210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1325" priority="2211">
+    <cfRule type="expression" dxfId="1237" priority="2211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1324" priority="2212">
+    <cfRule type="expression" dxfId="1236" priority="2212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1323" priority="2213">
+    <cfRule type="expression" dxfId="1235" priority="2213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="2214">
+    <cfRule type="expression" dxfId="1234" priority="2214">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1321" priority="2215">
+    <cfRule type="expression" dxfId="1233" priority="2215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="2216">
+    <cfRule type="expression" dxfId="1232" priority="2216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="expression" dxfId="1319" priority="2201">
+    <cfRule type="expression" dxfId="1231" priority="2201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1318" priority="2202">
+    <cfRule type="expression" dxfId="1230" priority="2202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1317" priority="2203">
+    <cfRule type="expression" dxfId="1229" priority="2203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1316" priority="2204">
+    <cfRule type="expression" dxfId="1228" priority="2204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1315" priority="2205">
+    <cfRule type="expression" dxfId="1227" priority="2205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="2206">
+    <cfRule type="expression" dxfId="1226" priority="2206">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1313" priority="2207">
+    <cfRule type="expression" dxfId="1225" priority="2207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="2208">
+    <cfRule type="expression" dxfId="1224" priority="2208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19">
-    <cfRule type="expression" dxfId="1311" priority="2193">
+    <cfRule type="expression" dxfId="1223" priority="2193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1310" priority="2194">
+    <cfRule type="expression" dxfId="1222" priority="2194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1309" priority="2195">
+    <cfRule type="expression" dxfId="1221" priority="2195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1308" priority="2196">
+    <cfRule type="expression" dxfId="1220" priority="2196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1307" priority="2197">
+    <cfRule type="expression" dxfId="1219" priority="2197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="2198">
+    <cfRule type="expression" dxfId="1218" priority="2198">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1305" priority="2199">
+    <cfRule type="expression" dxfId="1217" priority="2199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="2200">
+    <cfRule type="expression" dxfId="1216" priority="2200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="1303" priority="2129">
+    <cfRule type="expression" dxfId="1215" priority="2129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1302" priority="2130">
+    <cfRule type="expression" dxfId="1214" priority="2130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1301" priority="2131">
+    <cfRule type="expression" dxfId="1213" priority="2131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1300" priority="2132">
+    <cfRule type="expression" dxfId="1212" priority="2132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1299" priority="2133">
+    <cfRule type="expression" dxfId="1211" priority="2133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="2134">
+    <cfRule type="expression" dxfId="1210" priority="2134">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1297" priority="2135">
+    <cfRule type="expression" dxfId="1209" priority="2135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="2136">
+    <cfRule type="expression" dxfId="1208" priority="2136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="expression" dxfId="1295" priority="1905">
+    <cfRule type="expression" dxfId="1207" priority="1905">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1294" priority="1906">
+    <cfRule type="expression" dxfId="1206" priority="1906">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1293" priority="1907">
+    <cfRule type="expression" dxfId="1205" priority="1907">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1292" priority="1908">
+    <cfRule type="expression" dxfId="1204" priority="1908">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1291" priority="1909">
+    <cfRule type="expression" dxfId="1203" priority="1909">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="1910">
+    <cfRule type="expression" dxfId="1202" priority="1910">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1289" priority="1911">
+    <cfRule type="expression" dxfId="1201" priority="1911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="1912">
+    <cfRule type="expression" dxfId="1200" priority="1912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="expression" dxfId="1287" priority="1897">
+    <cfRule type="expression" dxfId="1199" priority="1897">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="1898">
+    <cfRule type="expression" dxfId="1198" priority="1898">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="1899">
+    <cfRule type="expression" dxfId="1197" priority="1899">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1284" priority="1900">
+    <cfRule type="expression" dxfId="1196" priority="1900">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1283" priority="1901">
+    <cfRule type="expression" dxfId="1195" priority="1901">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="1902">
+    <cfRule type="expression" dxfId="1194" priority="1902">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1281" priority="1903">
+    <cfRule type="expression" dxfId="1193" priority="1903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="1904">
+    <cfRule type="expression" dxfId="1192" priority="1904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="1279" priority="1889">
+    <cfRule type="expression" dxfId="1191" priority="1889">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="1890">
+    <cfRule type="expression" dxfId="1190" priority="1890">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="1891">
+    <cfRule type="expression" dxfId="1189" priority="1891">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1276" priority="1892">
+    <cfRule type="expression" dxfId="1188" priority="1892">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1275" priority="1893">
+    <cfRule type="expression" dxfId="1187" priority="1893">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="1894">
+    <cfRule type="expression" dxfId="1186" priority="1894">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1273" priority="1895">
+    <cfRule type="expression" dxfId="1185" priority="1895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="1896">
+    <cfRule type="expression" dxfId="1184" priority="1896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="1271" priority="1881">
+    <cfRule type="expression" dxfId="1183" priority="1881">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="1882">
+    <cfRule type="expression" dxfId="1182" priority="1882">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="1883">
+    <cfRule type="expression" dxfId="1181" priority="1883">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1268" priority="1884">
+    <cfRule type="expression" dxfId="1180" priority="1884">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1267" priority="1885">
+    <cfRule type="expression" dxfId="1179" priority="1885">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="1886">
+    <cfRule type="expression" dxfId="1178" priority="1886">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1265" priority="1887">
+    <cfRule type="expression" dxfId="1177" priority="1887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="1888">
+    <cfRule type="expression" dxfId="1176" priority="1888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="1263" priority="1873">
+    <cfRule type="expression" dxfId="1175" priority="1873">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="1874">
+    <cfRule type="expression" dxfId="1174" priority="1874">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="1875">
+    <cfRule type="expression" dxfId="1173" priority="1875">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1260" priority="1876">
+    <cfRule type="expression" dxfId="1172" priority="1876">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1259" priority="1877">
+    <cfRule type="expression" dxfId="1171" priority="1877">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="1878">
+    <cfRule type="expression" dxfId="1170" priority="1878">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1257" priority="1879">
+    <cfRule type="expression" dxfId="1169" priority="1879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="1880">
+    <cfRule type="expression" dxfId="1168" priority="1880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="1255" priority="1865">
+    <cfRule type="expression" dxfId="1167" priority="1865">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="1866">
+    <cfRule type="expression" dxfId="1166" priority="1866">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="1867">
+    <cfRule type="expression" dxfId="1165" priority="1867">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1252" priority="1868">
+    <cfRule type="expression" dxfId="1164" priority="1868">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1251" priority="1869">
+    <cfRule type="expression" dxfId="1163" priority="1869">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="1870">
+    <cfRule type="expression" dxfId="1162" priority="1870">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1249" priority="1871">
+    <cfRule type="expression" dxfId="1161" priority="1871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="1872">
+    <cfRule type="expression" dxfId="1160" priority="1872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="1247" priority="1857">
+    <cfRule type="expression" dxfId="1159" priority="1857">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="1858">
+    <cfRule type="expression" dxfId="1158" priority="1858">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="1859">
+    <cfRule type="expression" dxfId="1157" priority="1859">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1244" priority="1860">
+    <cfRule type="expression" dxfId="1156" priority="1860">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1243" priority="1861">
+    <cfRule type="expression" dxfId="1155" priority="1861">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="1862">
+    <cfRule type="expression" dxfId="1154" priority="1862">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1241" priority="1863">
+    <cfRule type="expression" dxfId="1153" priority="1863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="1864">
+    <cfRule type="expression" dxfId="1152" priority="1864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="1239" priority="1849">
+    <cfRule type="expression" dxfId="1151" priority="1849">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="1850">
+    <cfRule type="expression" dxfId="1150" priority="1850">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="1851">
+    <cfRule type="expression" dxfId="1149" priority="1851">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1236" priority="1852">
+    <cfRule type="expression" dxfId="1148" priority="1852">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1235" priority="1853">
+    <cfRule type="expression" dxfId="1147" priority="1853">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="1854">
+    <cfRule type="expression" dxfId="1146" priority="1854">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1233" priority="1855">
+    <cfRule type="expression" dxfId="1145" priority="1855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="1856">
+    <cfRule type="expression" dxfId="1144" priority="1856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="1231" priority="1841">
+    <cfRule type="expression" dxfId="1143" priority="1841">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="1842">
+    <cfRule type="expression" dxfId="1142" priority="1842">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="1843">
+    <cfRule type="expression" dxfId="1141" priority="1843">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="1844">
+    <cfRule type="expression" dxfId="1140" priority="1844">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1227" priority="1845">
+    <cfRule type="expression" dxfId="1139" priority="1845">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="1846">
+    <cfRule type="expression" dxfId="1138" priority="1846">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="1847">
+    <cfRule type="expression" dxfId="1137" priority="1847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1224" priority="1848">
+    <cfRule type="expression" dxfId="1136" priority="1848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="1223" priority="1833">
+    <cfRule type="expression" dxfId="1135" priority="1833">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="1834">
+    <cfRule type="expression" dxfId="1134" priority="1834">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="1835">
+    <cfRule type="expression" dxfId="1133" priority="1835">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="1836">
+    <cfRule type="expression" dxfId="1132" priority="1836">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1219" priority="1837">
+    <cfRule type="expression" dxfId="1131" priority="1837">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="1838">
+    <cfRule type="expression" dxfId="1130" priority="1838">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="1839">
+    <cfRule type="expression" dxfId="1129" priority="1839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1216" priority="1840">
+    <cfRule type="expression" dxfId="1128" priority="1840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="expression" dxfId="1215" priority="1825">
+    <cfRule type="expression" dxfId="1127" priority="1825">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="1826">
+    <cfRule type="expression" dxfId="1126" priority="1826">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="1827">
+    <cfRule type="expression" dxfId="1125" priority="1827">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="1828">
+    <cfRule type="expression" dxfId="1124" priority="1828">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1211" priority="1829">
+    <cfRule type="expression" dxfId="1123" priority="1829">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="1830">
+    <cfRule type="expression" dxfId="1122" priority="1830">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="1831">
+    <cfRule type="expression" dxfId="1121" priority="1831">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1208" priority="1832">
+    <cfRule type="expression" dxfId="1120" priority="1832">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="expression" dxfId="1207" priority="1809">
+    <cfRule type="expression" dxfId="1119" priority="1809">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="1810">
+    <cfRule type="expression" dxfId="1118" priority="1810">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="1811">
+    <cfRule type="expression" dxfId="1117" priority="1811">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="1812">
+    <cfRule type="expression" dxfId="1116" priority="1812">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1203" priority="1813">
+    <cfRule type="expression" dxfId="1115" priority="1813">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="1814">
+    <cfRule type="expression" dxfId="1114" priority="1814">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="1815">
+    <cfRule type="expression" dxfId="1113" priority="1815">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1200" priority="1816">
+    <cfRule type="expression" dxfId="1112" priority="1816">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="1199" priority="1801">
+    <cfRule type="expression" dxfId="1111" priority="1801">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="1802">
+    <cfRule type="expression" dxfId="1110" priority="1802">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="1803">
+    <cfRule type="expression" dxfId="1109" priority="1803">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="1804">
+    <cfRule type="expression" dxfId="1108" priority="1804">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1195" priority="1805">
+    <cfRule type="expression" dxfId="1107" priority="1805">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="1806">
+    <cfRule type="expression" dxfId="1106" priority="1806">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="1807">
+    <cfRule type="expression" dxfId="1105" priority="1807">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="1808">
+    <cfRule type="expression" dxfId="1104" priority="1808">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="1191" priority="1793">
+    <cfRule type="expression" dxfId="1103" priority="1793">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="1794">
+    <cfRule type="expression" dxfId="1102" priority="1794">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="1795">
+    <cfRule type="expression" dxfId="1101" priority="1795">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="1796">
+    <cfRule type="expression" dxfId="1100" priority="1796">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1187" priority="1797">
+    <cfRule type="expression" dxfId="1099" priority="1797">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="1798">
+    <cfRule type="expression" dxfId="1098" priority="1798">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="1799">
+    <cfRule type="expression" dxfId="1097" priority="1799">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="1800">
+    <cfRule type="expression" dxfId="1096" priority="1800">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="expression" dxfId="1183" priority="1681">
+    <cfRule type="expression" dxfId="1095" priority="1681">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="1682">
+    <cfRule type="expression" dxfId="1094" priority="1682">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="1683">
+    <cfRule type="expression" dxfId="1093" priority="1683">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="1684">
+    <cfRule type="expression" dxfId="1092" priority="1684">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1179" priority="1685">
+    <cfRule type="expression" dxfId="1091" priority="1685">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="1686">
+    <cfRule type="expression" dxfId="1090" priority="1686">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="1687">
+    <cfRule type="expression" dxfId="1089" priority="1687">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="1688">
+    <cfRule type="expression" dxfId="1088" priority="1688">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
-    <cfRule type="expression" dxfId="1175" priority="1761">
+    <cfRule type="expression" dxfId="1087" priority="1761">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="1762">
+    <cfRule type="expression" dxfId="1086" priority="1762">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="1763">
+    <cfRule type="expression" dxfId="1085" priority="1763">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="1764">
+    <cfRule type="expression" dxfId="1084" priority="1764">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1171" priority="1765">
+    <cfRule type="expression" dxfId="1083" priority="1765">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="1766">
+    <cfRule type="expression" dxfId="1082" priority="1766">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="1767">
+    <cfRule type="expression" dxfId="1081" priority="1767">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="1768">
+    <cfRule type="expression" dxfId="1080" priority="1768">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="expression" dxfId="1167" priority="1753">
+    <cfRule type="expression" dxfId="1079" priority="1753">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="1754">
+    <cfRule type="expression" dxfId="1078" priority="1754">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="1755">
+    <cfRule type="expression" dxfId="1077" priority="1755">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="1756">
+    <cfRule type="expression" dxfId="1076" priority="1756">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1163" priority="1757">
+    <cfRule type="expression" dxfId="1075" priority="1757">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="1758">
+    <cfRule type="expression" dxfId="1074" priority="1758">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="1759">
+    <cfRule type="expression" dxfId="1073" priority="1759">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="1760">
+    <cfRule type="expression" dxfId="1072" priority="1760">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="1159" priority="1617">
+    <cfRule type="expression" dxfId="1071" priority="1617">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="1618">
+    <cfRule type="expression" dxfId="1070" priority="1618">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="1619">
+    <cfRule type="expression" dxfId="1069" priority="1619">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="1620">
+    <cfRule type="expression" dxfId="1068" priority="1620">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1155" priority="1621">
+    <cfRule type="expression" dxfId="1067" priority="1621">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="1622">
+    <cfRule type="expression" dxfId="1066" priority="1622">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="1623">
+    <cfRule type="expression" dxfId="1065" priority="1623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="1624">
+    <cfRule type="expression" dxfId="1064" priority="1624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="1151" priority="1609">
+    <cfRule type="expression" dxfId="1063" priority="1609">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="1610">
+    <cfRule type="expression" dxfId="1062" priority="1610">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="1611">
+    <cfRule type="expression" dxfId="1061" priority="1611">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="1612">
+    <cfRule type="expression" dxfId="1060" priority="1612">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1147" priority="1613">
+    <cfRule type="expression" dxfId="1059" priority="1613">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="1614">
+    <cfRule type="expression" dxfId="1058" priority="1614">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="1615">
+    <cfRule type="expression" dxfId="1057" priority="1615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="1616">
+    <cfRule type="expression" dxfId="1056" priority="1616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="1143" priority="1729">
+    <cfRule type="expression" dxfId="1055" priority="1729">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="1730">
+    <cfRule type="expression" dxfId="1054" priority="1730">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="1731">
+    <cfRule type="expression" dxfId="1053" priority="1731">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="1732">
+    <cfRule type="expression" dxfId="1052" priority="1732">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1139" priority="1733">
+    <cfRule type="expression" dxfId="1051" priority="1733">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="1734">
+    <cfRule type="expression" dxfId="1050" priority="1734">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="1735">
+    <cfRule type="expression" dxfId="1049" priority="1735">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="1736">
+    <cfRule type="expression" dxfId="1048" priority="1736">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="1135" priority="1721">
+    <cfRule type="expression" dxfId="1047" priority="1721">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="1722">
+    <cfRule type="expression" dxfId="1046" priority="1722">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="1723">
+    <cfRule type="expression" dxfId="1045" priority="1723">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="1724">
+    <cfRule type="expression" dxfId="1044" priority="1724">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1131" priority="1725">
+    <cfRule type="expression" dxfId="1043" priority="1725">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="1726">
+    <cfRule type="expression" dxfId="1042" priority="1726">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="1727">
+    <cfRule type="expression" dxfId="1041" priority="1727">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="1728">
+    <cfRule type="expression" dxfId="1040" priority="1728">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="1127" priority="1697">
+    <cfRule type="expression" dxfId="1039" priority="1697">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="1698">
+    <cfRule type="expression" dxfId="1038" priority="1698">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="1699">
+    <cfRule type="expression" dxfId="1037" priority="1699">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="1700">
+    <cfRule type="expression" dxfId="1036" priority="1700">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1123" priority="1701">
+    <cfRule type="expression" dxfId="1035" priority="1701">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="1702">
+    <cfRule type="expression" dxfId="1034" priority="1702">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="1703">
+    <cfRule type="expression" dxfId="1033" priority="1703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="1704">
+    <cfRule type="expression" dxfId="1032" priority="1704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="1119" priority="1689">
+    <cfRule type="expression" dxfId="1031" priority="1689">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="1690">
+    <cfRule type="expression" dxfId="1030" priority="1690">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="1691">
+    <cfRule type="expression" dxfId="1029" priority="1691">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="1692">
+    <cfRule type="expression" dxfId="1028" priority="1692">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1115" priority="1693">
+    <cfRule type="expression" dxfId="1027" priority="1693">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="1694">
+    <cfRule type="expression" dxfId="1026" priority="1694">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="1695">
+    <cfRule type="expression" dxfId="1025" priority="1695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="1696">
+    <cfRule type="expression" dxfId="1024" priority="1696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="1111" priority="1337">
+    <cfRule type="expression" dxfId="1023" priority="1337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="1338">
+    <cfRule type="expression" dxfId="1022" priority="1338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="1339">
+    <cfRule type="expression" dxfId="1021" priority="1339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="1340">
+    <cfRule type="expression" dxfId="1020" priority="1340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1107" priority="1341">
+    <cfRule type="expression" dxfId="1019" priority="1341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="1342">
+    <cfRule type="expression" dxfId="1018" priority="1342">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="1343">
+    <cfRule type="expression" dxfId="1017" priority="1343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="1344">
+    <cfRule type="expression" dxfId="1016" priority="1344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="expression" dxfId="1103" priority="1593">
+    <cfRule type="expression" dxfId="1015" priority="1593">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="1594">
+    <cfRule type="expression" dxfId="1014" priority="1594">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="1595">
+    <cfRule type="expression" dxfId="1013" priority="1595">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="1596">
+    <cfRule type="expression" dxfId="1012" priority="1596">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1099" priority="1597">
+    <cfRule type="expression" dxfId="1011" priority="1597">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="1598">
+    <cfRule type="expression" dxfId="1010" priority="1598">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="1599">
+    <cfRule type="expression" dxfId="1009" priority="1599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="1600">
+    <cfRule type="expression" dxfId="1008" priority="1600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="1095" priority="1585">
+    <cfRule type="expression" dxfId="1007" priority="1585">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="1586">
+    <cfRule type="expression" dxfId="1006" priority="1586">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="1587">
+    <cfRule type="expression" dxfId="1005" priority="1587">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="1588">
+    <cfRule type="expression" dxfId="1004" priority="1588">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1091" priority="1589">
+    <cfRule type="expression" dxfId="1003" priority="1589">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="1590">
+    <cfRule type="expression" dxfId="1002" priority="1590">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="1591">
+    <cfRule type="expression" dxfId="1001" priority="1591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="1592">
+    <cfRule type="expression" dxfId="1000" priority="1592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="1087" priority="1569">
+    <cfRule type="expression" dxfId="999" priority="1569">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="1570">
+    <cfRule type="expression" dxfId="998" priority="1570">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="1571">
+    <cfRule type="expression" dxfId="997" priority="1571">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="1572">
+    <cfRule type="expression" dxfId="996" priority="1572">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1083" priority="1573">
+    <cfRule type="expression" dxfId="995" priority="1573">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="1574">
+    <cfRule type="expression" dxfId="994" priority="1574">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="1575">
+    <cfRule type="expression" dxfId="993" priority="1575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="1576">
+    <cfRule type="expression" dxfId="992" priority="1576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="1079" priority="1561">
+    <cfRule type="expression" dxfId="991" priority="1561">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="1562">
+    <cfRule type="expression" dxfId="990" priority="1562">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="1563">
+    <cfRule type="expression" dxfId="989" priority="1563">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="1564">
+    <cfRule type="expression" dxfId="988" priority="1564">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1075" priority="1565">
+    <cfRule type="expression" dxfId="987" priority="1565">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="1566">
+    <cfRule type="expression" dxfId="986" priority="1566">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="1567">
+    <cfRule type="expression" dxfId="985" priority="1567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="1568">
+    <cfRule type="expression" dxfId="984" priority="1568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="expression" dxfId="1071" priority="1361">
+    <cfRule type="expression" dxfId="983" priority="1361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="1362">
+    <cfRule type="expression" dxfId="982" priority="1362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="1363">
+    <cfRule type="expression" dxfId="981" priority="1363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="1364">
+    <cfRule type="expression" dxfId="980" priority="1364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1067" priority="1365">
+    <cfRule type="expression" dxfId="979" priority="1365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="1366">
+    <cfRule type="expression" dxfId="978" priority="1366">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="1367">
+    <cfRule type="expression" dxfId="977" priority="1367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="1368">
+    <cfRule type="expression" dxfId="976" priority="1368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" dxfId="1063" priority="1353">
+    <cfRule type="expression" dxfId="975" priority="1353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="1354">
+    <cfRule type="expression" dxfId="974" priority="1354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="1355">
+    <cfRule type="expression" dxfId="973" priority="1355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="1356">
+    <cfRule type="expression" dxfId="972" priority="1356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1059" priority="1357">
+    <cfRule type="expression" dxfId="971" priority="1357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="1358">
+    <cfRule type="expression" dxfId="970" priority="1358">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="1359">
+    <cfRule type="expression" dxfId="969" priority="1359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="1360">
+    <cfRule type="expression" dxfId="968" priority="1360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="expression" dxfId="1055" priority="1153">
+    <cfRule type="expression" dxfId="967" priority="1153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="1154">
+    <cfRule type="expression" dxfId="966" priority="1154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="1155">
+    <cfRule type="expression" dxfId="965" priority="1155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="1156">
+    <cfRule type="expression" dxfId="964" priority="1156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1051" priority="1157">
+    <cfRule type="expression" dxfId="963" priority="1157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="1158">
+    <cfRule type="expression" dxfId="962" priority="1158">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="1159">
+    <cfRule type="expression" dxfId="961" priority="1159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="1160">
+    <cfRule type="expression" dxfId="960" priority="1160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="expression" dxfId="1047" priority="1145">
+    <cfRule type="expression" dxfId="959" priority="1145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="1146">
+    <cfRule type="expression" dxfId="958" priority="1146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="1147">
+    <cfRule type="expression" dxfId="957" priority="1147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="1148">
+    <cfRule type="expression" dxfId="956" priority="1148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1043" priority="1149">
+    <cfRule type="expression" dxfId="955" priority="1149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="1150">
+    <cfRule type="expression" dxfId="954" priority="1150">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="1151">
+    <cfRule type="expression" dxfId="953" priority="1151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="1152">
+    <cfRule type="expression" dxfId="952" priority="1152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V37">
-    <cfRule type="expression" dxfId="1039" priority="1241">
+    <cfRule type="expression" dxfId="951" priority="1241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="1242">
+    <cfRule type="expression" dxfId="950" priority="1242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="1243">
+    <cfRule type="expression" dxfId="949" priority="1243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="1244">
+    <cfRule type="expression" dxfId="948" priority="1244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1035" priority="1245">
+    <cfRule type="expression" dxfId="947" priority="1245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="1246">
+    <cfRule type="expression" dxfId="946" priority="1246">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="1247">
+    <cfRule type="expression" dxfId="945" priority="1247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="1248">
+    <cfRule type="expression" dxfId="944" priority="1248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U37">
-    <cfRule type="expression" dxfId="1031" priority="1233">
+    <cfRule type="expression" dxfId="943" priority="1233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="1234">
+    <cfRule type="expression" dxfId="942" priority="1234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="1235">
+    <cfRule type="expression" dxfId="941" priority="1235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="1236">
+    <cfRule type="expression" dxfId="940" priority="1236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1027" priority="1237">
+    <cfRule type="expression" dxfId="939" priority="1237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="1238">
+    <cfRule type="expression" dxfId="938" priority="1238">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="1239">
+    <cfRule type="expression" dxfId="937" priority="1239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="1240">
+    <cfRule type="expression" dxfId="936" priority="1240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="expression" dxfId="1023" priority="1225">
+    <cfRule type="expression" dxfId="935" priority="1225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="1226">
+    <cfRule type="expression" dxfId="934" priority="1226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="1227">
+    <cfRule type="expression" dxfId="933" priority="1227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="1228">
+    <cfRule type="expression" dxfId="932" priority="1228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1019" priority="1229">
+    <cfRule type="expression" dxfId="931" priority="1229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="1230">
+    <cfRule type="expression" dxfId="930" priority="1230">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="1231">
+    <cfRule type="expression" dxfId="929" priority="1231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="1232">
+    <cfRule type="expression" dxfId="928" priority="1232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37">
-    <cfRule type="expression" dxfId="1015" priority="1217">
+    <cfRule type="expression" dxfId="927" priority="1217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="1218">
+    <cfRule type="expression" dxfId="926" priority="1218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="1219">
+    <cfRule type="expression" dxfId="925" priority="1219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="1220">
+    <cfRule type="expression" dxfId="924" priority="1220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1011" priority="1221">
+    <cfRule type="expression" dxfId="923" priority="1221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="1222">
+    <cfRule type="expression" dxfId="922" priority="1222">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="1223">
+    <cfRule type="expression" dxfId="921" priority="1223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="1224">
+    <cfRule type="expression" dxfId="920" priority="1224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="expression" dxfId="1007" priority="1209">
+    <cfRule type="expression" dxfId="919" priority="1209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="1210">
+    <cfRule type="expression" dxfId="918" priority="1210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="1211">
+    <cfRule type="expression" dxfId="917" priority="1211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="1212">
+    <cfRule type="expression" dxfId="916" priority="1212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1003" priority="1213">
+    <cfRule type="expression" dxfId="915" priority="1213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="1214">
+    <cfRule type="expression" dxfId="914" priority="1214">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="1215">
+    <cfRule type="expression" dxfId="913" priority="1215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="1216">
+    <cfRule type="expression" dxfId="912" priority="1216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="expression" dxfId="999" priority="1177">
+    <cfRule type="expression" dxfId="911" priority="1177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="1178">
+    <cfRule type="expression" dxfId="910" priority="1178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="1179">
+    <cfRule type="expression" dxfId="909" priority="1179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="1180">
+    <cfRule type="expression" dxfId="908" priority="1180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="995" priority="1181">
+    <cfRule type="expression" dxfId="907" priority="1181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="1182">
+    <cfRule type="expression" dxfId="906" priority="1182">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="1183">
+    <cfRule type="expression" dxfId="905" priority="1183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="1184">
+    <cfRule type="expression" dxfId="904" priority="1184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="expression" dxfId="991" priority="1161">
+    <cfRule type="expression" dxfId="903" priority="1161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="1162">
+    <cfRule type="expression" dxfId="902" priority="1162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="1163">
+    <cfRule type="expression" dxfId="901" priority="1163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="1164">
+    <cfRule type="expression" dxfId="900" priority="1164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="987" priority="1165">
+    <cfRule type="expression" dxfId="899" priority="1165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="1166">
+    <cfRule type="expression" dxfId="898" priority="1166">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="1167">
+    <cfRule type="expression" dxfId="897" priority="1167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="1168">
+    <cfRule type="expression" dxfId="896" priority="1168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="expression" dxfId="983" priority="801">
+    <cfRule type="expression" dxfId="895" priority="801">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="802">
+    <cfRule type="expression" dxfId="894" priority="802">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="803">
+    <cfRule type="expression" dxfId="893" priority="803">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="804">
+    <cfRule type="expression" dxfId="892" priority="804">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="805">
+    <cfRule type="expression" dxfId="891" priority="805">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="806">
+    <cfRule type="expression" dxfId="890" priority="806">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="807">
+    <cfRule type="expression" dxfId="889" priority="807">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="808">
+    <cfRule type="expression" dxfId="888" priority="808">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="expression" dxfId="975" priority="1137">
+    <cfRule type="expression" dxfId="887" priority="1137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="1138">
+    <cfRule type="expression" dxfId="886" priority="1138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="1139">
+    <cfRule type="expression" dxfId="885" priority="1139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="1140">
+    <cfRule type="expression" dxfId="884" priority="1140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="1141">
+    <cfRule type="expression" dxfId="883" priority="1141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="1142">
+    <cfRule type="expression" dxfId="882" priority="1142">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="1143">
+    <cfRule type="expression" dxfId="881" priority="1143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="1144">
+    <cfRule type="expression" dxfId="880" priority="1144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="967" priority="1129">
+    <cfRule type="expression" dxfId="879" priority="1129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1130">
+    <cfRule type="expression" dxfId="878" priority="1130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1131">
+    <cfRule type="expression" dxfId="877" priority="1131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="1132">
+    <cfRule type="expression" dxfId="876" priority="1132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1133">
+    <cfRule type="expression" dxfId="875" priority="1133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="1134">
+    <cfRule type="expression" dxfId="874" priority="1134">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1135">
+    <cfRule type="expression" dxfId="873" priority="1135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1136">
+    <cfRule type="expression" dxfId="872" priority="1136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="959" priority="1121">
+    <cfRule type="expression" dxfId="871" priority="1121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1122">
+    <cfRule type="expression" dxfId="870" priority="1122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1123">
+    <cfRule type="expression" dxfId="869" priority="1123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="1124">
+    <cfRule type="expression" dxfId="868" priority="1124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1125">
+    <cfRule type="expression" dxfId="867" priority="1125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1126">
+    <cfRule type="expression" dxfId="866" priority="1126">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="1127">
+    <cfRule type="expression" dxfId="865" priority="1127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1128">
+    <cfRule type="expression" dxfId="864" priority="1128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="951" priority="1113">
+    <cfRule type="expression" dxfId="863" priority="1113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="1114">
+    <cfRule type="expression" dxfId="862" priority="1114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1115">
+    <cfRule type="expression" dxfId="861" priority="1115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1116">
+    <cfRule type="expression" dxfId="860" priority="1116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="947" priority="1117">
+    <cfRule type="expression" dxfId="859" priority="1117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1118">
+    <cfRule type="expression" dxfId="858" priority="1118">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1119">
+    <cfRule type="expression" dxfId="857" priority="1119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="1120">
+    <cfRule type="expression" dxfId="856" priority="1120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="943" priority="1105">
+    <cfRule type="expression" dxfId="855" priority="1105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1106">
+    <cfRule type="expression" dxfId="854" priority="1106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="1107">
+    <cfRule type="expression" dxfId="853" priority="1107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1108">
+    <cfRule type="expression" dxfId="852" priority="1108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1109">
+    <cfRule type="expression" dxfId="851" priority="1109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="1110">
+    <cfRule type="expression" dxfId="850" priority="1110">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1111">
+    <cfRule type="expression" dxfId="849" priority="1111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1112">
+    <cfRule type="expression" dxfId="848" priority="1112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="935" priority="1097">
+    <cfRule type="expression" dxfId="847" priority="1097">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1098">
+    <cfRule type="expression" dxfId="846" priority="1098">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1099">
+    <cfRule type="expression" dxfId="845" priority="1099">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="1100">
+    <cfRule type="expression" dxfId="844" priority="1100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1101">
+    <cfRule type="expression" dxfId="843" priority="1101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1102">
+    <cfRule type="expression" dxfId="842" priority="1102">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="1103">
+    <cfRule type="expression" dxfId="841" priority="1103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1104">
+    <cfRule type="expression" dxfId="840" priority="1104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="927" priority="1081">
+    <cfRule type="expression" dxfId="839" priority="1081">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="1082">
+    <cfRule type="expression" dxfId="838" priority="1082">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1083">
+    <cfRule type="expression" dxfId="837" priority="1083">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1084">
+    <cfRule type="expression" dxfId="836" priority="1084">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="923" priority="1085">
+    <cfRule type="expression" dxfId="835" priority="1085">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1086">
+    <cfRule type="expression" dxfId="834" priority="1086">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1087">
+    <cfRule type="expression" dxfId="833" priority="1087">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="1088">
+    <cfRule type="expression" dxfId="832" priority="1088">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="919" priority="1073">
+    <cfRule type="expression" dxfId="831" priority="1073">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1074">
+    <cfRule type="expression" dxfId="830" priority="1074">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="1075">
+    <cfRule type="expression" dxfId="829" priority="1075">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1076">
+    <cfRule type="expression" dxfId="828" priority="1076">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1077">
+    <cfRule type="expression" dxfId="827" priority="1077">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="1078">
+    <cfRule type="expression" dxfId="826" priority="1078">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="1079">
+    <cfRule type="expression" dxfId="825" priority="1079">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="1080">
+    <cfRule type="expression" dxfId="824" priority="1080">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="expression" dxfId="911" priority="1041">
+    <cfRule type="expression" dxfId="823" priority="1041">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1042">
+    <cfRule type="expression" dxfId="822" priority="1042">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1043">
+    <cfRule type="expression" dxfId="821" priority="1043">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="1044">
+    <cfRule type="expression" dxfId="820" priority="1044">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1045">
+    <cfRule type="expression" dxfId="819" priority="1045">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1046">
+    <cfRule type="expression" dxfId="818" priority="1046">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="1047">
+    <cfRule type="expression" dxfId="817" priority="1047">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1048">
+    <cfRule type="expression" dxfId="816" priority="1048">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="903" priority="1065">
+    <cfRule type="expression" dxfId="815" priority="1065">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="1066">
+    <cfRule type="expression" dxfId="814" priority="1066">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1067">
+    <cfRule type="expression" dxfId="813" priority="1067">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1068">
+    <cfRule type="expression" dxfId="812" priority="1068">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="899" priority="1069">
+    <cfRule type="expression" dxfId="811" priority="1069">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1070">
+    <cfRule type="expression" dxfId="810" priority="1070">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1071">
+    <cfRule type="expression" dxfId="809" priority="1071">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="1072">
+    <cfRule type="expression" dxfId="808" priority="1072">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13">
-    <cfRule type="expression" dxfId="895" priority="1057">
+    <cfRule type="expression" dxfId="807" priority="1057">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1058">
+    <cfRule type="expression" dxfId="806" priority="1058">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="1059">
+    <cfRule type="expression" dxfId="805" priority="1059">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1060">
+    <cfRule type="expression" dxfId="804" priority="1060">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1061">
+    <cfRule type="expression" dxfId="803" priority="1061">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="1062">
+    <cfRule type="expression" dxfId="802" priority="1062">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1063">
+    <cfRule type="expression" dxfId="801" priority="1063">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1064">
+    <cfRule type="expression" dxfId="800" priority="1064">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="887" priority="1049">
+    <cfRule type="expression" dxfId="799" priority="1049">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1050">
+    <cfRule type="expression" dxfId="798" priority="1050">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1051">
+    <cfRule type="expression" dxfId="797" priority="1051">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="1052">
+    <cfRule type="expression" dxfId="796" priority="1052">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1053">
+    <cfRule type="expression" dxfId="795" priority="1053">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1054">
+    <cfRule type="expression" dxfId="794" priority="1054">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="1055">
+    <cfRule type="expression" dxfId="793" priority="1055">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1056">
+    <cfRule type="expression" dxfId="792" priority="1056">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="879" priority="1033">
+    <cfRule type="expression" dxfId="791" priority="1033">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="1034">
+    <cfRule type="expression" dxfId="790" priority="1034">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1035">
+    <cfRule type="expression" dxfId="789" priority="1035">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1036">
+    <cfRule type="expression" dxfId="788" priority="1036">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="875" priority="1037">
+    <cfRule type="expression" dxfId="787" priority="1037">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1038">
+    <cfRule type="expression" dxfId="786" priority="1038">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1039">
+    <cfRule type="expression" dxfId="785" priority="1039">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="1040">
+    <cfRule type="expression" dxfId="784" priority="1040">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="871" priority="1025">
+    <cfRule type="expression" dxfId="783" priority="1025">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="1026">
+    <cfRule type="expression" dxfId="782" priority="1026">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="1027">
+    <cfRule type="expression" dxfId="781" priority="1027">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="1028">
+    <cfRule type="expression" dxfId="780" priority="1028">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="867" priority="1029">
+    <cfRule type="expression" dxfId="779" priority="1029">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="1030">
+    <cfRule type="expression" dxfId="778" priority="1030">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="1031">
+    <cfRule type="expression" dxfId="777" priority="1031">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="1032">
+    <cfRule type="expression" dxfId="776" priority="1032">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="863" priority="1017">
+    <cfRule type="expression" dxfId="775" priority="1017">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1018">
+    <cfRule type="expression" dxfId="774" priority="1018">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1019">
+    <cfRule type="expression" dxfId="773" priority="1019">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="1020">
+    <cfRule type="expression" dxfId="772" priority="1020">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1021">
+    <cfRule type="expression" dxfId="771" priority="1021">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1022">
+    <cfRule type="expression" dxfId="770" priority="1022">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="1023">
+    <cfRule type="expression" dxfId="769" priority="1023">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1024">
+    <cfRule type="expression" dxfId="768" priority="1024">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="855" priority="1009">
+    <cfRule type="expression" dxfId="767" priority="1009">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="1010">
+    <cfRule type="expression" dxfId="766" priority="1010">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1011">
+    <cfRule type="expression" dxfId="765" priority="1011">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1012">
+    <cfRule type="expression" dxfId="764" priority="1012">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="851" priority="1013">
+    <cfRule type="expression" dxfId="763" priority="1013">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1014">
+    <cfRule type="expression" dxfId="762" priority="1014">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1015">
+    <cfRule type="expression" dxfId="761" priority="1015">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="1016">
+    <cfRule type="expression" dxfId="760" priority="1016">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="847" priority="1001">
+    <cfRule type="expression" dxfId="759" priority="1001">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1002">
+    <cfRule type="expression" dxfId="758" priority="1002">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="1003">
+    <cfRule type="expression" dxfId="757" priority="1003">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1004">
+    <cfRule type="expression" dxfId="756" priority="1004">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1005">
+    <cfRule type="expression" dxfId="755" priority="1005">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="1006">
+    <cfRule type="expression" dxfId="754" priority="1006">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1007">
+    <cfRule type="expression" dxfId="753" priority="1007">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1008">
+    <cfRule type="expression" dxfId="752" priority="1008">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="839" priority="993">
+    <cfRule type="expression" dxfId="751" priority="993">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="994">
+    <cfRule type="expression" dxfId="750" priority="994">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="995">
+    <cfRule type="expression" dxfId="749" priority="995">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="996">
+    <cfRule type="expression" dxfId="748" priority="996">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="835" priority="997">
+    <cfRule type="expression" dxfId="747" priority="997">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="998">
+    <cfRule type="expression" dxfId="746" priority="998">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="999">
+    <cfRule type="expression" dxfId="745" priority="999">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1000">
+    <cfRule type="expression" dxfId="744" priority="1000">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10">
-    <cfRule type="expression" dxfId="831" priority="985">
+    <cfRule type="expression" dxfId="743" priority="985">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="986">
+    <cfRule type="expression" dxfId="742" priority="986">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="987">
+    <cfRule type="expression" dxfId="741" priority="987">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="988">
+    <cfRule type="expression" dxfId="740" priority="988">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="827" priority="989">
+    <cfRule type="expression" dxfId="739" priority="989">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="990">
+    <cfRule type="expression" dxfId="738" priority="990">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="991">
+    <cfRule type="expression" dxfId="737" priority="991">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="992">
+    <cfRule type="expression" dxfId="736" priority="992">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="823" priority="945">
+    <cfRule type="expression" dxfId="735" priority="945">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="946">
+    <cfRule type="expression" dxfId="734" priority="946">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="947">
+    <cfRule type="expression" dxfId="733" priority="947">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="948">
+    <cfRule type="expression" dxfId="732" priority="948">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="819" priority="949">
+    <cfRule type="expression" dxfId="731" priority="949">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="950">
+    <cfRule type="expression" dxfId="730" priority="950">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="951">
+    <cfRule type="expression" dxfId="729" priority="951">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="952">
+    <cfRule type="expression" dxfId="728" priority="952">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="815" priority="969">
+    <cfRule type="expression" dxfId="727" priority="969">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="970">
+    <cfRule type="expression" dxfId="726" priority="970">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="971">
+    <cfRule type="expression" dxfId="725" priority="971">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="972">
+    <cfRule type="expression" dxfId="724" priority="972">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="973">
+    <cfRule type="expression" dxfId="723" priority="973">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="974">
+    <cfRule type="expression" dxfId="722" priority="974">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="975">
+    <cfRule type="expression" dxfId="721" priority="975">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="976">
+    <cfRule type="expression" dxfId="720" priority="976">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="807" priority="961">
+    <cfRule type="expression" dxfId="719" priority="961">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="962">
+    <cfRule type="expression" dxfId="718" priority="962">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="963">
+    <cfRule type="expression" dxfId="717" priority="963">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="964">
+    <cfRule type="expression" dxfId="716" priority="964">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="803" priority="965">
+    <cfRule type="expression" dxfId="715" priority="965">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="966">
+    <cfRule type="expression" dxfId="714" priority="966">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="967">
+    <cfRule type="expression" dxfId="713" priority="967">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="968">
+    <cfRule type="expression" dxfId="712" priority="968">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="799" priority="953">
+    <cfRule type="expression" dxfId="711" priority="953">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="954">
+    <cfRule type="expression" dxfId="710" priority="954">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="955">
+    <cfRule type="expression" dxfId="709" priority="955">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="956">
+    <cfRule type="expression" dxfId="708" priority="956">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="957">
+    <cfRule type="expression" dxfId="707" priority="957">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="958">
+    <cfRule type="expression" dxfId="706" priority="958">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="959">
+    <cfRule type="expression" dxfId="705" priority="959">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="960">
+    <cfRule type="expression" dxfId="704" priority="960">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9">
-    <cfRule type="expression" dxfId="791" priority="937">
+    <cfRule type="expression" dxfId="703" priority="937">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="938">
+    <cfRule type="expression" dxfId="702" priority="938">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="939">
+    <cfRule type="expression" dxfId="701" priority="939">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="940">
+    <cfRule type="expression" dxfId="700" priority="940">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="941">
+    <cfRule type="expression" dxfId="699" priority="941">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="942">
+    <cfRule type="expression" dxfId="698" priority="942">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="943">
+    <cfRule type="expression" dxfId="697" priority="943">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="944">
+    <cfRule type="expression" dxfId="696" priority="944">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL8">
-    <cfRule type="expression" dxfId="783" priority="929">
+    <cfRule type="expression" dxfId="695" priority="929">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="930">
+    <cfRule type="expression" dxfId="694" priority="930">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="931">
+    <cfRule type="expression" dxfId="693" priority="931">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="932">
+    <cfRule type="expression" dxfId="692" priority="932">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="933">
+    <cfRule type="expression" dxfId="691" priority="933">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="934">
+    <cfRule type="expression" dxfId="690" priority="934">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="935">
+    <cfRule type="expression" dxfId="689" priority="935">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="936">
+    <cfRule type="expression" dxfId="688" priority="936">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="775" priority="921">
+    <cfRule type="expression" dxfId="687" priority="921">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="922">
+    <cfRule type="expression" dxfId="686" priority="922">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="923">
+    <cfRule type="expression" dxfId="685" priority="923">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="924">
+    <cfRule type="expression" dxfId="684" priority="924">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="925">
+    <cfRule type="expression" dxfId="683" priority="925">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="926">
+    <cfRule type="expression" dxfId="682" priority="926">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="927">
+    <cfRule type="expression" dxfId="681" priority="927">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="928">
+    <cfRule type="expression" dxfId="680" priority="928">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="767" priority="913">
+    <cfRule type="expression" dxfId="679" priority="913">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="914">
+    <cfRule type="expression" dxfId="678" priority="914">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="915">
+    <cfRule type="expression" dxfId="677" priority="915">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="916">
+    <cfRule type="expression" dxfId="676" priority="916">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="917">
+    <cfRule type="expression" dxfId="675" priority="917">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="918">
+    <cfRule type="expression" dxfId="674" priority="918">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="919">
+    <cfRule type="expression" dxfId="673" priority="919">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="920">
+    <cfRule type="expression" dxfId="672" priority="920">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="expression" dxfId="759" priority="905">
+    <cfRule type="expression" dxfId="671" priority="905">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="906">
+    <cfRule type="expression" dxfId="670" priority="906">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="907">
+    <cfRule type="expression" dxfId="669" priority="907">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="908">
+    <cfRule type="expression" dxfId="668" priority="908">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="909">
+    <cfRule type="expression" dxfId="667" priority="909">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="910">
+    <cfRule type="expression" dxfId="666" priority="910">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="911">
+    <cfRule type="expression" dxfId="665" priority="911">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="912">
+    <cfRule type="expression" dxfId="664" priority="912">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="expression" dxfId="751" priority="897">
+    <cfRule type="expression" dxfId="663" priority="897">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="898">
+    <cfRule type="expression" dxfId="662" priority="898">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="899">
+    <cfRule type="expression" dxfId="661" priority="899">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="900">
+    <cfRule type="expression" dxfId="660" priority="900">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="901">
+    <cfRule type="expression" dxfId="659" priority="901">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="902">
+    <cfRule type="expression" dxfId="658" priority="902">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="903">
+    <cfRule type="expression" dxfId="657" priority="903">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="904">
+    <cfRule type="expression" dxfId="656" priority="904">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="expression" dxfId="743" priority="889">
+    <cfRule type="expression" dxfId="655" priority="889">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="890">
+    <cfRule type="expression" dxfId="654" priority="890">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="891">
+    <cfRule type="expression" dxfId="653" priority="891">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="892">
+    <cfRule type="expression" dxfId="652" priority="892">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="893">
+    <cfRule type="expression" dxfId="651" priority="893">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="894">
+    <cfRule type="expression" dxfId="650" priority="894">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="895">
+    <cfRule type="expression" dxfId="649" priority="895">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="896">
+    <cfRule type="expression" dxfId="648" priority="896">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="735" priority="881">
+    <cfRule type="expression" dxfId="647" priority="881">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="882">
+    <cfRule type="expression" dxfId="646" priority="882">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="883">
+    <cfRule type="expression" dxfId="645" priority="883">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="884">
+    <cfRule type="expression" dxfId="644" priority="884">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="885">
+    <cfRule type="expression" dxfId="643" priority="885">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="886">
+    <cfRule type="expression" dxfId="642" priority="886">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="887">
+    <cfRule type="expression" dxfId="641" priority="887">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="888">
+    <cfRule type="expression" dxfId="640" priority="888">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="expression" dxfId="727" priority="873">
+    <cfRule type="expression" dxfId="639" priority="873">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="874">
+    <cfRule type="expression" dxfId="638" priority="874">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="875">
+    <cfRule type="expression" dxfId="637" priority="875">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="876">
+    <cfRule type="expression" dxfId="636" priority="876">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="877">
+    <cfRule type="expression" dxfId="635" priority="877">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="878">
+    <cfRule type="expression" dxfId="634" priority="878">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="879">
+    <cfRule type="expression" dxfId="633" priority="879">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="880">
+    <cfRule type="expression" dxfId="632" priority="880">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="expression" dxfId="719" priority="865">
+    <cfRule type="expression" dxfId="631" priority="865">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="866">
+    <cfRule type="expression" dxfId="630" priority="866">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="867">
+    <cfRule type="expression" dxfId="629" priority="867">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="868">
+    <cfRule type="expression" dxfId="628" priority="868">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="869">
+    <cfRule type="expression" dxfId="627" priority="869">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="870">
+    <cfRule type="expression" dxfId="626" priority="870">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="871">
+    <cfRule type="expression" dxfId="625" priority="871">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="872">
+    <cfRule type="expression" dxfId="624" priority="872">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="711" priority="857">
+    <cfRule type="expression" dxfId="623" priority="857">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="858">
+    <cfRule type="expression" dxfId="622" priority="858">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="859">
+    <cfRule type="expression" dxfId="621" priority="859">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="860">
+    <cfRule type="expression" dxfId="620" priority="860">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="861">
+    <cfRule type="expression" dxfId="619" priority="861">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="862">
+    <cfRule type="expression" dxfId="618" priority="862">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="863">
+    <cfRule type="expression" dxfId="617" priority="863">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="864">
+    <cfRule type="expression" dxfId="616" priority="864">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="703" priority="849">
+    <cfRule type="expression" dxfId="615" priority="849">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="850">
+    <cfRule type="expression" dxfId="614" priority="850">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="851">
+    <cfRule type="expression" dxfId="613" priority="851">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="852">
+    <cfRule type="expression" dxfId="612" priority="852">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="853">
+    <cfRule type="expression" dxfId="611" priority="853">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="854">
+    <cfRule type="expression" dxfId="610" priority="854">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="855">
+    <cfRule type="expression" dxfId="609" priority="855">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="856">
+    <cfRule type="expression" dxfId="608" priority="856">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="695" priority="841">
+    <cfRule type="expression" dxfId="607" priority="841">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="842">
+    <cfRule type="expression" dxfId="606" priority="842">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="843">
+    <cfRule type="expression" dxfId="605" priority="843">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="844">
+    <cfRule type="expression" dxfId="604" priority="844">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="845">
+    <cfRule type="expression" dxfId="603" priority="845">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="846">
+    <cfRule type="expression" dxfId="602" priority="846">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="847">
+    <cfRule type="expression" dxfId="601" priority="847">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="848">
+    <cfRule type="expression" dxfId="600" priority="848">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="687" priority="833">
+    <cfRule type="expression" dxfId="599" priority="833">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="834">
+    <cfRule type="expression" dxfId="598" priority="834">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="835">
+    <cfRule type="expression" dxfId="597" priority="835">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="836">
+    <cfRule type="expression" dxfId="596" priority="836">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="837">
+    <cfRule type="expression" dxfId="595" priority="837">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="838">
+    <cfRule type="expression" dxfId="594" priority="838">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="839">
+    <cfRule type="expression" dxfId="593" priority="839">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="840">
+    <cfRule type="expression" dxfId="592" priority="840">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="679" priority="785">
+    <cfRule type="expression" dxfId="591" priority="785">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="786">
+    <cfRule type="expression" dxfId="590" priority="786">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="787">
+    <cfRule type="expression" dxfId="589" priority="787">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="788">
+    <cfRule type="expression" dxfId="588" priority="788">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="789">
+    <cfRule type="expression" dxfId="587" priority="789">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="790">
+    <cfRule type="expression" dxfId="586" priority="790">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="791">
+    <cfRule type="expression" dxfId="585" priority="791">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="792">
+    <cfRule type="expression" dxfId="584" priority="792">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="671" priority="777">
+    <cfRule type="expression" dxfId="583" priority="777">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="778">
+    <cfRule type="expression" dxfId="582" priority="778">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="779">
+    <cfRule type="expression" dxfId="581" priority="779">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="780">
+    <cfRule type="expression" dxfId="580" priority="780">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="781">
+    <cfRule type="expression" dxfId="579" priority="781">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="782">
+    <cfRule type="expression" dxfId="578" priority="782">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="783">
+    <cfRule type="expression" dxfId="577" priority="783">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="784">
+    <cfRule type="expression" dxfId="576" priority="784">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="663" priority="745">
+    <cfRule type="expression" dxfId="575" priority="745">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="746">
+    <cfRule type="expression" dxfId="574" priority="746">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="747">
+    <cfRule type="expression" dxfId="573" priority="747">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="748">
+    <cfRule type="expression" dxfId="572" priority="748">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="749">
+    <cfRule type="expression" dxfId="571" priority="749">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="750">
+    <cfRule type="expression" dxfId="570" priority="750">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="751">
+    <cfRule type="expression" dxfId="569" priority="751">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="752">
+    <cfRule type="expression" dxfId="568" priority="752">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="655" priority="737">
+    <cfRule type="expression" dxfId="567" priority="737">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="738">
+    <cfRule type="expression" dxfId="566" priority="738">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="739">
+    <cfRule type="expression" dxfId="565" priority="739">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="740">
+    <cfRule type="expression" dxfId="564" priority="740">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="741">
+    <cfRule type="expression" dxfId="563" priority="741">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="742">
+    <cfRule type="expression" dxfId="562" priority="742">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="743">
+    <cfRule type="expression" dxfId="561" priority="743">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="744">
+    <cfRule type="expression" dxfId="560" priority="744">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="647" priority="713">
+    <cfRule type="expression" dxfId="559" priority="713">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="714">
+    <cfRule type="expression" dxfId="558" priority="714">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="715">
+    <cfRule type="expression" dxfId="557" priority="715">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="716">
+    <cfRule type="expression" dxfId="556" priority="716">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="717">
+    <cfRule type="expression" dxfId="555" priority="717">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="718">
+    <cfRule type="expression" dxfId="554" priority="718">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="719">
+    <cfRule type="expression" dxfId="553" priority="719">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="720">
+    <cfRule type="expression" dxfId="552" priority="720">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="expression" dxfId="639" priority="705">
+    <cfRule type="expression" dxfId="551" priority="705">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="706">
+    <cfRule type="expression" dxfId="550" priority="706">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="707">
+    <cfRule type="expression" dxfId="549" priority="707">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="708">
+    <cfRule type="expression" dxfId="548" priority="708">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="709">
+    <cfRule type="expression" dxfId="547" priority="709">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="710">
+    <cfRule type="expression" dxfId="546" priority="710">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="711">
+    <cfRule type="expression" dxfId="545" priority="711">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="712">
+    <cfRule type="expression" dxfId="544" priority="712">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29">
-    <cfRule type="expression" dxfId="631" priority="697">
+    <cfRule type="expression" dxfId="543" priority="697">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="698">
+    <cfRule type="expression" dxfId="542" priority="698">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="699">
+    <cfRule type="expression" dxfId="541" priority="699">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="700">
+    <cfRule type="expression" dxfId="540" priority="700">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="701">
+    <cfRule type="expression" dxfId="539" priority="701">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="702">
+    <cfRule type="expression" dxfId="538" priority="702">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="703">
+    <cfRule type="expression" dxfId="537" priority="703">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="704">
+    <cfRule type="expression" dxfId="536" priority="704">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="623" priority="689">
+    <cfRule type="expression" dxfId="535" priority="689">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="690">
+    <cfRule type="expression" dxfId="534" priority="690">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="691">
+    <cfRule type="expression" dxfId="533" priority="691">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="692">
+    <cfRule type="expression" dxfId="532" priority="692">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="693">
+    <cfRule type="expression" dxfId="531" priority="693">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="694">
+    <cfRule type="expression" dxfId="530" priority="694">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="695">
+    <cfRule type="expression" dxfId="529" priority="695">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="696">
+    <cfRule type="expression" dxfId="528" priority="696">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="615" priority="625">
+    <cfRule type="expression" dxfId="527" priority="625">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="626">
+    <cfRule type="expression" dxfId="526" priority="626">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="627">
+    <cfRule type="expression" dxfId="525" priority="627">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="628">
+    <cfRule type="expression" dxfId="524" priority="628">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="629">
+    <cfRule type="expression" dxfId="523" priority="629">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="630">
+    <cfRule type="expression" dxfId="522" priority="630">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="631">
+    <cfRule type="expression" dxfId="521" priority="631">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="632">
+    <cfRule type="expression" dxfId="520" priority="632">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="expression" dxfId="607" priority="617">
+    <cfRule type="expression" dxfId="519" priority="617">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="618">
+    <cfRule type="expression" dxfId="518" priority="618">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="619">
+    <cfRule type="expression" dxfId="517" priority="619">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="620">
+    <cfRule type="expression" dxfId="516" priority="620">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="621">
+    <cfRule type="expression" dxfId="515" priority="621">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="622">
+    <cfRule type="expression" dxfId="514" priority="622">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="623">
+    <cfRule type="expression" dxfId="513" priority="623">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="624">
+    <cfRule type="expression" dxfId="512" priority="624">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
-    <cfRule type="expression" dxfId="599" priority="609">
+    <cfRule type="expression" dxfId="511" priority="609">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="610">
+    <cfRule type="expression" dxfId="510" priority="610">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="611">
+    <cfRule type="expression" dxfId="509" priority="611">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="612">
+    <cfRule type="expression" dxfId="508" priority="612">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="613">
+    <cfRule type="expression" dxfId="507" priority="613">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="614">
+    <cfRule type="expression" dxfId="506" priority="614">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="615">
+    <cfRule type="expression" dxfId="505" priority="615">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="616">
+    <cfRule type="expression" dxfId="504" priority="616">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="591" priority="601">
+    <cfRule type="expression" dxfId="503" priority="601">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="602">
+    <cfRule type="expression" dxfId="502" priority="602">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="603">
+    <cfRule type="expression" dxfId="501" priority="603">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="604">
+    <cfRule type="expression" dxfId="500" priority="604">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="605">
+    <cfRule type="expression" dxfId="499" priority="605">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="606">
+    <cfRule type="expression" dxfId="498" priority="606">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="607">
+    <cfRule type="expression" dxfId="497" priority="607">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="608">
+    <cfRule type="expression" dxfId="496" priority="608">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="expression" dxfId="583" priority="593">
+    <cfRule type="expression" dxfId="495" priority="593">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="594">
+    <cfRule type="expression" dxfId="494" priority="594">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="595">
+    <cfRule type="expression" dxfId="493" priority="595">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="596">
+    <cfRule type="expression" dxfId="492" priority="596">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="597">
+    <cfRule type="expression" dxfId="491" priority="597">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="598">
+    <cfRule type="expression" dxfId="490" priority="598">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="599">
+    <cfRule type="expression" dxfId="489" priority="599">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="600">
+    <cfRule type="expression" dxfId="488" priority="600">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="575" priority="585">
+    <cfRule type="expression" dxfId="487" priority="585">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="586">
+    <cfRule type="expression" dxfId="486" priority="586">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="587">
+    <cfRule type="expression" dxfId="485" priority="587">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="588">
+    <cfRule type="expression" dxfId="484" priority="588">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="589">
+    <cfRule type="expression" dxfId="483" priority="589">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="590">
+    <cfRule type="expression" dxfId="482" priority="590">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="591">
+    <cfRule type="expression" dxfId="481" priority="591">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="592">
+    <cfRule type="expression" dxfId="480" priority="592">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="567" priority="577">
+    <cfRule type="expression" dxfId="479" priority="577">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="578">
+    <cfRule type="expression" dxfId="478" priority="578">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="579">
+    <cfRule type="expression" dxfId="477" priority="579">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="580">
+    <cfRule type="expression" dxfId="476" priority="580">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="581">
+    <cfRule type="expression" dxfId="475" priority="581">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="582">
+    <cfRule type="expression" dxfId="474" priority="582">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="583">
+    <cfRule type="expression" dxfId="473" priority="583">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="584">
+    <cfRule type="expression" dxfId="472" priority="584">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="559" priority="569">
+    <cfRule type="expression" dxfId="471" priority="569">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="570">
+    <cfRule type="expression" dxfId="470" priority="570">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="571">
+    <cfRule type="expression" dxfId="469" priority="571">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="572">
+    <cfRule type="expression" dxfId="468" priority="572">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="573">
+    <cfRule type="expression" dxfId="467" priority="573">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="574">
+    <cfRule type="expression" dxfId="466" priority="574">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="575">
+    <cfRule type="expression" dxfId="465" priority="575">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="576">
+    <cfRule type="expression" dxfId="464" priority="576">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="551" priority="561">
+    <cfRule type="expression" dxfId="463" priority="561">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="562">
+    <cfRule type="expression" dxfId="462" priority="562">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="563">
+    <cfRule type="expression" dxfId="461" priority="563">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="564">
+    <cfRule type="expression" dxfId="460" priority="564">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="565">
+    <cfRule type="expression" dxfId="459" priority="565">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="566">
+    <cfRule type="expression" dxfId="458" priority="566">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="567">
+    <cfRule type="expression" dxfId="457" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="568">
+    <cfRule type="expression" dxfId="456" priority="568">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="expression" dxfId="543" priority="553">
+    <cfRule type="expression" dxfId="455" priority="553">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="554">
+    <cfRule type="expression" dxfId="454" priority="554">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="555">
+    <cfRule type="expression" dxfId="453" priority="555">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="556">
+    <cfRule type="expression" dxfId="452" priority="556">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="557">
+    <cfRule type="expression" dxfId="451" priority="557">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="558">
+    <cfRule type="expression" dxfId="450" priority="558">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="559">
+    <cfRule type="expression" dxfId="449" priority="559">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="560">
+    <cfRule type="expression" dxfId="448" priority="560">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="535" priority="545">
+    <cfRule type="expression" dxfId="447" priority="545">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="546">
+    <cfRule type="expression" dxfId="446" priority="546">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="547">
+    <cfRule type="expression" dxfId="445" priority="547">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="548">
+    <cfRule type="expression" dxfId="444" priority="548">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="549">
+    <cfRule type="expression" dxfId="443" priority="549">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="550">
+    <cfRule type="expression" dxfId="442" priority="550">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="551">
+    <cfRule type="expression" dxfId="441" priority="551">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="552">
+    <cfRule type="expression" dxfId="440" priority="552">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="527" priority="497">
+    <cfRule type="expression" dxfId="439" priority="497">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="498">
+    <cfRule type="expression" dxfId="438" priority="498">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="499">
+    <cfRule type="expression" dxfId="437" priority="499">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="500">
+    <cfRule type="expression" dxfId="436" priority="500">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="501">
+    <cfRule type="expression" dxfId="435" priority="501">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="502">
+    <cfRule type="expression" dxfId="434" priority="502">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="503">
+    <cfRule type="expression" dxfId="433" priority="503">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="504">
+    <cfRule type="expression" dxfId="432" priority="504">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="519" priority="489">
+    <cfRule type="expression" dxfId="431" priority="489">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="490">
+    <cfRule type="expression" dxfId="430" priority="490">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="491">
+    <cfRule type="expression" dxfId="429" priority="491">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="492">
+    <cfRule type="expression" dxfId="428" priority="492">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="493">
+    <cfRule type="expression" dxfId="427" priority="493">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="494">
+    <cfRule type="expression" dxfId="426" priority="494">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="495">
+    <cfRule type="expression" dxfId="425" priority="495">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="496">
+    <cfRule type="expression" dxfId="424" priority="496">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="511" priority="481">
+    <cfRule type="expression" dxfId="423" priority="481">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="482">
+    <cfRule type="expression" dxfId="422" priority="482">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="483">
+    <cfRule type="expression" dxfId="421" priority="483">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="484">
+    <cfRule type="expression" dxfId="420" priority="484">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="485">
+    <cfRule type="expression" dxfId="419" priority="485">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="486">
+    <cfRule type="expression" dxfId="418" priority="486">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="487">
+    <cfRule type="expression" dxfId="417" priority="487">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="488">
+    <cfRule type="expression" dxfId="416" priority="488">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="503" priority="473">
+    <cfRule type="expression" dxfId="415" priority="473">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="474">
+    <cfRule type="expression" dxfId="414" priority="474">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="475">
+    <cfRule type="expression" dxfId="413" priority="475">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="476">
+    <cfRule type="expression" dxfId="412" priority="476">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="477">
+    <cfRule type="expression" dxfId="411" priority="477">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="478">
+    <cfRule type="expression" dxfId="410" priority="478">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="479">
+    <cfRule type="expression" dxfId="409" priority="479">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="480">
+    <cfRule type="expression" dxfId="408" priority="480">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12">
-    <cfRule type="expression" dxfId="495" priority="465">
+    <cfRule type="expression" dxfId="407" priority="465">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="466">
+    <cfRule type="expression" dxfId="406" priority="466">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="467">
+    <cfRule type="expression" dxfId="405" priority="467">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="468">
+    <cfRule type="expression" dxfId="404" priority="468">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="469">
+    <cfRule type="expression" dxfId="403" priority="469">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="470">
+    <cfRule type="expression" dxfId="402" priority="470">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="471">
+    <cfRule type="expression" dxfId="401" priority="471">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="472">
+    <cfRule type="expression" dxfId="400" priority="472">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="487" priority="457">
+    <cfRule type="expression" dxfId="399" priority="457">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="458">
+    <cfRule type="expression" dxfId="398" priority="458">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="459">
+    <cfRule type="expression" dxfId="397" priority="459">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="460">
+    <cfRule type="expression" dxfId="396" priority="460">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="461">
+    <cfRule type="expression" dxfId="395" priority="461">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="462">
+    <cfRule type="expression" dxfId="394" priority="462">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="463">
+    <cfRule type="expression" dxfId="393" priority="463">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="464">
+    <cfRule type="expression" dxfId="392" priority="464">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="479" priority="449">
+    <cfRule type="expression" dxfId="391" priority="449">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="450">
+    <cfRule type="expression" dxfId="390" priority="450">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="451">
+    <cfRule type="expression" dxfId="389" priority="451">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="452">
+    <cfRule type="expression" dxfId="388" priority="452">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="453">
+    <cfRule type="expression" dxfId="387" priority="453">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="454">
+    <cfRule type="expression" dxfId="386" priority="454">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="455">
+    <cfRule type="expression" dxfId="385" priority="455">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="456">
+    <cfRule type="expression" dxfId="384" priority="456">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="471" priority="441">
+    <cfRule type="expression" dxfId="383" priority="441">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="442">
+    <cfRule type="expression" dxfId="382" priority="442">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="443">
+    <cfRule type="expression" dxfId="381" priority="443">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="444">
+    <cfRule type="expression" dxfId="380" priority="444">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="445">
+    <cfRule type="expression" dxfId="379" priority="445">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="446">
+    <cfRule type="expression" dxfId="378" priority="446">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="447">
+    <cfRule type="expression" dxfId="377" priority="447">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="448">
+    <cfRule type="expression" dxfId="376" priority="448">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="463" priority="433">
+    <cfRule type="expression" dxfId="375" priority="433">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="434">
+    <cfRule type="expression" dxfId="374" priority="434">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="435">
+    <cfRule type="expression" dxfId="373" priority="435">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="436">
+    <cfRule type="expression" dxfId="372" priority="436">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="437">
+    <cfRule type="expression" dxfId="371" priority="437">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="438">
+    <cfRule type="expression" dxfId="370" priority="438">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="439">
+    <cfRule type="expression" dxfId="369" priority="439">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="440">
+    <cfRule type="expression" dxfId="368" priority="440">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="expression" dxfId="455" priority="425">
+    <cfRule type="expression" dxfId="367" priority="425">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="426">
+    <cfRule type="expression" dxfId="366" priority="426">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="427">
+    <cfRule type="expression" dxfId="365" priority="427">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="428">
+    <cfRule type="expression" dxfId="364" priority="428">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="429">
+    <cfRule type="expression" dxfId="363" priority="429">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="430">
+    <cfRule type="expression" dxfId="362" priority="430">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="431">
+    <cfRule type="expression" dxfId="361" priority="431">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="432">
+    <cfRule type="expression" dxfId="360" priority="432">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="expression" dxfId="439" priority="409">
+    <cfRule type="expression" dxfId="359" priority="409">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="410">
+    <cfRule type="expression" dxfId="358" priority="410">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="411">
+    <cfRule type="expression" dxfId="357" priority="411">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="412">
+    <cfRule type="expression" dxfId="356" priority="412">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="413">
+    <cfRule type="expression" dxfId="355" priority="413">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="414">
+    <cfRule type="expression" dxfId="354" priority="414">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="415">
+    <cfRule type="expression" dxfId="353" priority="415">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="416">
+    <cfRule type="expression" dxfId="352" priority="416">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="expression" dxfId="431" priority="401">
+    <cfRule type="expression" dxfId="351" priority="401">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="402">
+    <cfRule type="expression" dxfId="350" priority="402">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="403">
+    <cfRule type="expression" dxfId="349" priority="403">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="404">
+    <cfRule type="expression" dxfId="348" priority="404">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="405">
+    <cfRule type="expression" dxfId="347" priority="405">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="406">
+    <cfRule type="expression" dxfId="346" priority="406">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="407">
+    <cfRule type="expression" dxfId="345" priority="407">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="408">
+    <cfRule type="expression" dxfId="344" priority="408">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="423" priority="393">
+    <cfRule type="expression" dxfId="343" priority="393">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="394">
+    <cfRule type="expression" dxfId="342" priority="394">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="395">
+    <cfRule type="expression" dxfId="341" priority="395">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="396">
+    <cfRule type="expression" dxfId="340" priority="396">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="397">
+    <cfRule type="expression" dxfId="339" priority="397">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="398">
+    <cfRule type="expression" dxfId="338" priority="398">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="399">
+    <cfRule type="expression" dxfId="337" priority="399">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="400">
+    <cfRule type="expression" dxfId="336" priority="400">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25">
-    <cfRule type="expression" dxfId="415" priority="377">
+    <cfRule type="expression" dxfId="335" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="378">
+    <cfRule type="expression" dxfId="334" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="379">
+    <cfRule type="expression" dxfId="333" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="380">
+    <cfRule type="expression" dxfId="332" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="381">
+    <cfRule type="expression" dxfId="331" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="382">
+    <cfRule type="expression" dxfId="330" priority="382">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="383">
+    <cfRule type="expression" dxfId="329" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="384">
+    <cfRule type="expression" dxfId="328" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="expression" dxfId="407" priority="369">
+    <cfRule type="expression" dxfId="327" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="370">
+    <cfRule type="expression" dxfId="326" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="371">
+    <cfRule type="expression" dxfId="325" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="372">
+    <cfRule type="expression" dxfId="324" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="373">
+    <cfRule type="expression" dxfId="323" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="374">
+    <cfRule type="expression" dxfId="322" priority="374">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="375">
+    <cfRule type="expression" dxfId="321" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="376">
+    <cfRule type="expression" dxfId="320" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="399" priority="353">
+    <cfRule type="expression" dxfId="319" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="354">
+    <cfRule type="expression" dxfId="318" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="355">
+    <cfRule type="expression" dxfId="317" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="356">
+    <cfRule type="expression" dxfId="316" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="357">
+    <cfRule type="expression" dxfId="315" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="358">
+    <cfRule type="expression" dxfId="314" priority="358">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="359">
+    <cfRule type="expression" dxfId="313" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="360">
+    <cfRule type="expression" dxfId="312" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="expression" dxfId="391" priority="345">
+    <cfRule type="expression" dxfId="311" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="346">
+    <cfRule type="expression" dxfId="310" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="347">
+    <cfRule type="expression" dxfId="309" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="348">
+    <cfRule type="expression" dxfId="308" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="349">
+    <cfRule type="expression" dxfId="307" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="350">
+    <cfRule type="expression" dxfId="306" priority="350">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="351">
+    <cfRule type="expression" dxfId="305" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="352">
+    <cfRule type="expression" dxfId="304" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="expression" dxfId="383" priority="337">
+    <cfRule type="expression" dxfId="303" priority="337">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="338">
+    <cfRule type="expression" dxfId="302" priority="338">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="339">
+    <cfRule type="expression" dxfId="301" priority="339">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="340">
+    <cfRule type="expression" dxfId="300" priority="340">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="341">
+    <cfRule type="expression" dxfId="299" priority="341">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="342">
+    <cfRule type="expression" dxfId="298" priority="342">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="343">
+    <cfRule type="expression" dxfId="297" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="344">
+    <cfRule type="expression" dxfId="296" priority="344">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="375" priority="329">
+    <cfRule type="expression" dxfId="295" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="330">
+    <cfRule type="expression" dxfId="294" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="331">
+    <cfRule type="expression" dxfId="293" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="332">
+    <cfRule type="expression" dxfId="292" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="333">
+    <cfRule type="expression" dxfId="291" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="334">
+    <cfRule type="expression" dxfId="290" priority="334">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="335">
+    <cfRule type="expression" dxfId="289" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="336">
+    <cfRule type="expression" dxfId="288" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="expression" dxfId="367" priority="321">
+    <cfRule type="expression" dxfId="287" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="322">
+    <cfRule type="expression" dxfId="286" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="323">
+    <cfRule type="expression" dxfId="285" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="324">
+    <cfRule type="expression" dxfId="284" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="325">
+    <cfRule type="expression" dxfId="283" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="326">
+    <cfRule type="expression" dxfId="282" priority="326">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="327">
+    <cfRule type="expression" dxfId="281" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="328">
+    <cfRule type="expression" dxfId="280" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="expression" dxfId="359" priority="313">
+    <cfRule type="expression" dxfId="279" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="314">
+    <cfRule type="expression" dxfId="278" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="315">
+    <cfRule type="expression" dxfId="277" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="316">
+    <cfRule type="expression" dxfId="276" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="317">
+    <cfRule type="expression" dxfId="275" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="318">
+    <cfRule type="expression" dxfId="274" priority="318">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="319">
+    <cfRule type="expression" dxfId="273" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="320">
+    <cfRule type="expression" dxfId="272" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="expression" dxfId="351" priority="305">
+    <cfRule type="expression" dxfId="271" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="306">
+    <cfRule type="expression" dxfId="270" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="307">
+    <cfRule type="expression" dxfId="269" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="308">
+    <cfRule type="expression" dxfId="268" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="309">
+    <cfRule type="expression" dxfId="267" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="310">
+    <cfRule type="expression" dxfId="266" priority="310">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="311">
+    <cfRule type="expression" dxfId="265" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="312">
+    <cfRule type="expression" dxfId="264" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="expression" dxfId="343" priority="297">
+    <cfRule type="expression" dxfId="263" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="298">
+    <cfRule type="expression" dxfId="262" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="299">
+    <cfRule type="expression" dxfId="261" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="300">
+    <cfRule type="expression" dxfId="260" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="301">
+    <cfRule type="expression" dxfId="259" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="302">
+    <cfRule type="expression" dxfId="258" priority="302">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="303">
+    <cfRule type="expression" dxfId="257" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="304">
+    <cfRule type="expression" dxfId="256" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="335" priority="289">
+    <cfRule type="expression" dxfId="255" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="290">
+    <cfRule type="expression" dxfId="254" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="291">
+    <cfRule type="expression" dxfId="253" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="292">
+    <cfRule type="expression" dxfId="252" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="293">
+    <cfRule type="expression" dxfId="251" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="294">
+    <cfRule type="expression" dxfId="250" priority="294">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="295">
+    <cfRule type="expression" dxfId="249" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="296">
+    <cfRule type="expression" dxfId="248" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R19">
-    <cfRule type="expression" dxfId="327" priority="273">
+    <cfRule type="expression" dxfId="247" priority="273">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="274">
+    <cfRule type="expression" dxfId="246" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="275">
+    <cfRule type="expression" dxfId="245" priority="275">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="276">
+    <cfRule type="expression" dxfId="244" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="277">
+    <cfRule type="expression" dxfId="243" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="278">
+    <cfRule type="expression" dxfId="242" priority="278">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="279">
+    <cfRule type="expression" dxfId="241" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="280">
+    <cfRule type="expression" dxfId="240" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="expression" dxfId="319" priority="265">
+    <cfRule type="expression" dxfId="239" priority="265">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="266">
+    <cfRule type="expression" dxfId="238" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="267">
+    <cfRule type="expression" dxfId="237" priority="267">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="268">
+    <cfRule type="expression" dxfId="236" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="269">
+    <cfRule type="expression" dxfId="235" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="270">
+    <cfRule type="expression" dxfId="234" priority="270">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="271">
+    <cfRule type="expression" dxfId="233" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="272">
+    <cfRule type="expression" dxfId="232" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="311" priority="257">
+    <cfRule type="expression" dxfId="231" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="258">
+    <cfRule type="expression" dxfId="230" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="259">
+    <cfRule type="expression" dxfId="229" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="260">
+    <cfRule type="expression" dxfId="228" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="261">
+    <cfRule type="expression" dxfId="227" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="262">
+    <cfRule type="expression" dxfId="226" priority="262">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="263">
+    <cfRule type="expression" dxfId="225" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="264">
+    <cfRule type="expression" dxfId="224" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="expression" dxfId="303" priority="249">
+    <cfRule type="expression" dxfId="223" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="250">
+    <cfRule type="expression" dxfId="222" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="251">
+    <cfRule type="expression" dxfId="221" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="252">
+    <cfRule type="expression" dxfId="220" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="253">
+    <cfRule type="expression" dxfId="219" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="254">
+    <cfRule type="expression" dxfId="218" priority="254">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="255">
+    <cfRule type="expression" dxfId="217" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="256">
+    <cfRule type="expression" dxfId="216" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
-    <cfRule type="expression" dxfId="287" priority="233">
+    <cfRule type="expression" dxfId="215" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="234">
+    <cfRule type="expression" dxfId="214" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="235">
+    <cfRule type="expression" dxfId="213" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="236">
+    <cfRule type="expression" dxfId="212" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="237">
+    <cfRule type="expression" dxfId="211" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="238">
+    <cfRule type="expression" dxfId="210" priority="238">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="239">
+    <cfRule type="expression" dxfId="209" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="240">
+    <cfRule type="expression" dxfId="208" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
-    <cfRule type="expression" dxfId="279" priority="225">
+    <cfRule type="expression" dxfId="207" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="226">
+    <cfRule type="expression" dxfId="206" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="227">
+    <cfRule type="expression" dxfId="205" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="228">
+    <cfRule type="expression" dxfId="204" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="229">
+    <cfRule type="expression" dxfId="203" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="230">
+    <cfRule type="expression" dxfId="202" priority="230">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="231">
+    <cfRule type="expression" dxfId="201" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="232">
+    <cfRule type="expression" dxfId="200" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="expression" dxfId="271" priority="209">
+    <cfRule type="expression" dxfId="199" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="210">
+    <cfRule type="expression" dxfId="198" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="211">
+    <cfRule type="expression" dxfId="197" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="212">
+    <cfRule type="expression" dxfId="196" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="213">
+    <cfRule type="expression" dxfId="195" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="214">
+    <cfRule type="expression" dxfId="194" priority="214">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="215">
+    <cfRule type="expression" dxfId="193" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="216">
+    <cfRule type="expression" dxfId="192" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22">
-    <cfRule type="expression" dxfId="263" priority="201">
+    <cfRule type="expression" dxfId="191" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="202">
+    <cfRule type="expression" dxfId="190" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="203">
+    <cfRule type="expression" dxfId="189" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="204">
+    <cfRule type="expression" dxfId="188" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="205">
+    <cfRule type="expression" dxfId="187" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="206">
+    <cfRule type="expression" dxfId="186" priority="206">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="207">
+    <cfRule type="expression" dxfId="185" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="208">
+    <cfRule type="expression" dxfId="184" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="255" priority="193">
+    <cfRule type="expression" dxfId="183" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="194">
+    <cfRule type="expression" dxfId="182" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="195">
+    <cfRule type="expression" dxfId="181" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="196">
+    <cfRule type="expression" dxfId="180" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="197">
+    <cfRule type="expression" dxfId="179" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="198">
+    <cfRule type="expression" dxfId="178" priority="198">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="199">
+    <cfRule type="expression" dxfId="177" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="200">
+    <cfRule type="expression" dxfId="176" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="expression" dxfId="247" priority="185">
+    <cfRule type="expression" dxfId="175" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="186">
+    <cfRule type="expression" dxfId="174" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="187">
+    <cfRule type="expression" dxfId="173" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="188">
+    <cfRule type="expression" dxfId="172" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="189">
+    <cfRule type="expression" dxfId="171" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="190">
+    <cfRule type="expression" dxfId="170" priority="190">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="191">
+    <cfRule type="expression" dxfId="169" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="192">
+    <cfRule type="expression" dxfId="168" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="expression" dxfId="239" priority="177">
+    <cfRule type="expression" dxfId="167" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="178">
+    <cfRule type="expression" dxfId="166" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="179">
+    <cfRule type="expression" dxfId="165" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="180">
+    <cfRule type="expression" dxfId="164" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="181">
+    <cfRule type="expression" dxfId="163" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="182">
+    <cfRule type="expression" dxfId="162" priority="182">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="183">
+    <cfRule type="expression" dxfId="161" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="184">
+    <cfRule type="expression" dxfId="160" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="expression" dxfId="231" priority="169">
+    <cfRule type="expression" dxfId="159" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="170">
+    <cfRule type="expression" dxfId="158" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="171">
+    <cfRule type="expression" dxfId="157" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="172">
+    <cfRule type="expression" dxfId="156" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="173">
+    <cfRule type="expression" dxfId="155" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="174">
+    <cfRule type="expression" dxfId="154" priority="174">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="175">
+    <cfRule type="expression" dxfId="153" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="176">
+    <cfRule type="expression" dxfId="152" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:W30">
-    <cfRule type="expression" dxfId="223" priority="161">
+    <cfRule type="expression" dxfId="151" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="162">
+    <cfRule type="expression" dxfId="150" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="163">
+    <cfRule type="expression" dxfId="149" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="164">
+    <cfRule type="expression" dxfId="148" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="165">
+    <cfRule type="expression" dxfId="147" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="166">
+    <cfRule type="expression" dxfId="146" priority="166">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="167">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="168">
+    <cfRule type="expression" dxfId="144" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="expression" dxfId="207" priority="145">
+    <cfRule type="expression" dxfId="143" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="146">
+    <cfRule type="expression" dxfId="142" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="147">
+    <cfRule type="expression" dxfId="141" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="148">
+    <cfRule type="expression" dxfId="140" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="149">
+    <cfRule type="expression" dxfId="139" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="150">
+    <cfRule type="expression" dxfId="138" priority="150">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="151">
+    <cfRule type="expression" dxfId="137" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="152">
+    <cfRule type="expression" dxfId="136" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="expression" dxfId="199" priority="137">
+    <cfRule type="expression" dxfId="135" priority="137">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="138">
+    <cfRule type="expression" dxfId="134" priority="138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="139">
+    <cfRule type="expression" dxfId="133" priority="139">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="140">
+    <cfRule type="expression" dxfId="132" priority="140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="141">
+    <cfRule type="expression" dxfId="131" priority="141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="142">
+    <cfRule type="expression" dxfId="130" priority="142">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="143">
+    <cfRule type="expression" dxfId="129" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="144">
+    <cfRule type="expression" dxfId="128" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="expression" dxfId="191" priority="129">
+    <cfRule type="expression" dxfId="127" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="130">
+    <cfRule type="expression" dxfId="126" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="131">
+    <cfRule type="expression" dxfId="125" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="132">
+    <cfRule type="expression" dxfId="124" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="133">
+    <cfRule type="expression" dxfId="123" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="134">
+    <cfRule type="expression" dxfId="122" priority="134">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="135">
+    <cfRule type="expression" dxfId="121" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="136">
+    <cfRule type="expression" dxfId="120" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="expression" dxfId="183" priority="121">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="122">
+    <cfRule type="expression" dxfId="118" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="123">
+    <cfRule type="expression" dxfId="117" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="124">
+    <cfRule type="expression" dxfId="116" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="125">
+    <cfRule type="expression" dxfId="115" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="126">
+    <cfRule type="expression" dxfId="114" priority="126">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="127">
+    <cfRule type="expression" dxfId="113" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="128">
+    <cfRule type="expression" dxfId="112" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="175" priority="113">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="114">
+    <cfRule type="expression" dxfId="110" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="115">
+    <cfRule type="expression" dxfId="109" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="116">
+    <cfRule type="expression" dxfId="108" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="117">
+    <cfRule type="expression" dxfId="107" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="118">
+    <cfRule type="expression" dxfId="106" priority="118">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="119">
+    <cfRule type="expression" dxfId="105" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="120">
+    <cfRule type="expression" dxfId="104" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="167" priority="105">
+    <cfRule type="expression" dxfId="103" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="106">
+    <cfRule type="expression" dxfId="102" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="107">
+    <cfRule type="expression" dxfId="101" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="108">
+    <cfRule type="expression" dxfId="100" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="109">
+    <cfRule type="expression" dxfId="99" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="110">
+    <cfRule type="expression" dxfId="98" priority="110">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="111">
+    <cfRule type="expression" dxfId="97" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="112">
+    <cfRule type="expression" dxfId="96" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="expression" dxfId="159" priority="97">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="98">
+    <cfRule type="expression" dxfId="94" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="99">
+    <cfRule type="expression" dxfId="93" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="100">
+    <cfRule type="expression" dxfId="92" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="101">
+    <cfRule type="expression" dxfId="91" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="102">
+    <cfRule type="expression" dxfId="90" priority="102">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="103">
+    <cfRule type="expression" dxfId="89" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="104">
+    <cfRule type="expression" dxfId="88" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="151" priority="89">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="90">
+    <cfRule type="expression" dxfId="86" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="91">
+    <cfRule type="expression" dxfId="85" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="92">
+    <cfRule type="expression" dxfId="84" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="93">
+    <cfRule type="expression" dxfId="83" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="94">
+    <cfRule type="expression" dxfId="82" priority="94">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="95">
+    <cfRule type="expression" dxfId="81" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="96">
+    <cfRule type="expression" dxfId="80" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="143" priority="81">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="82">
+    <cfRule type="expression" dxfId="78" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="83">
+    <cfRule type="expression" dxfId="77" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="84">
+    <cfRule type="expression" dxfId="76" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="85">
+    <cfRule type="expression" dxfId="75" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="86">
+    <cfRule type="expression" dxfId="74" priority="86">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="87">
+    <cfRule type="expression" dxfId="73" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="88">
+    <cfRule type="expression" dxfId="72" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="expression" dxfId="135" priority="73">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="74">
+    <cfRule type="expression" dxfId="70" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="75">
+    <cfRule type="expression" dxfId="69" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="76">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="77">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="78">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="79">
+    <cfRule type="expression" dxfId="65" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="80">
+    <cfRule type="expression" dxfId="64" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AC14 AE14:AG14">
-    <cfRule type="expression" dxfId="119" priority="57">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="58">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="59">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="60">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="111" priority="49">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="50">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="51">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="53">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="54">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="55">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="56">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="expression" dxfId="95" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="48">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="expression" dxfId="79" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="expression" dxfId="47" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
